--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4B2DBA1-E071-4764-ACED-D48806596B05}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAFD7C6-FF4B-4A69-8CBE-CB6CA0CAF51F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="555">
   <si>
     <t>Mês</t>
   </si>
@@ -1698,27 +1698,6 @@
   </si>
   <si>
     <t>25/03/2025</t>
-  </si>
-  <si>
-    <t>26/03/2025</t>
-  </si>
-  <si>
-    <t>27/03/2025</t>
-  </si>
-  <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
-    <t>29/03/2025</t>
-  </si>
-  <si>
-    <t>30/03/2025</t>
-  </si>
-  <si>
-    <t>31/03/2025</t>
-  </si>
-  <si>
-    <t>31/04/2025</t>
   </si>
 </sst>
 </file>
@@ -1777,17 +1756,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2093,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1504"/>
+  <dimension ref="A1:G1397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1447" sqref="C1447"/>
+      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1398" sqref="A1398:XFD1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34236,2467 +34208,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1398">
-        <v>3</v>
-      </c>
-      <c r="B1398">
-        <v>26</v>
-      </c>
-      <c r="C1398" s="2">
-        <v>0.31041666666666667</v>
-      </c>
-      <c r="D1398">
-        <v>254</v>
-      </c>
-      <c r="E1398" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1398">
-        <v>42</v>
-      </c>
-      <c r="G1398">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1399">
-        <v>3</v>
-      </c>
-      <c r="B1399">
-        <v>26</v>
-      </c>
-      <c r="C1399" s="2">
-        <v>0.68541666666666667</v>
-      </c>
-      <c r="D1399">
-        <v>96</v>
-      </c>
-      <c r="E1399" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1399">
-        <v>42</v>
-      </c>
-      <c r="G1399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1400">
-        <v>3</v>
-      </c>
-      <c r="B1400">
-        <v>26</v>
-      </c>
-      <c r="C1400" s="2">
-        <v>0.85833333333333328</v>
-      </c>
-      <c r="D1400">
-        <v>63</v>
-      </c>
-      <c r="E1400" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1400">
-        <v>42</v>
-      </c>
-      <c r="G1400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1401">
-        <v>3</v>
-      </c>
-      <c r="B1401">
-        <v>27</v>
-      </c>
-      <c r="C1401" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D1401">
-        <v>179</v>
-      </c>
-      <c r="E1401" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1401">
-        <v>42</v>
-      </c>
-      <c r="G1401">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1402">
-        <v>3</v>
-      </c>
-      <c r="B1402">
-        <v>27</v>
-      </c>
-      <c r="C1402" s="2">
-        <v>0.72777777777777775</v>
-      </c>
-      <c r="D1402">
-        <v>93</v>
-      </c>
-      <c r="E1402" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1402">
-        <v>42</v>
-      </c>
-      <c r="G1402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1403">
-        <v>3</v>
-      </c>
-      <c r="B1403">
-        <v>28</v>
-      </c>
-      <c r="C1403" s="2">
-        <v>0.30694444444444446</v>
-      </c>
-      <c r="D1403">
-        <v>278</v>
-      </c>
-      <c r="E1403" t="s">
-        <v>557</v>
-      </c>
-      <c r="F1403">
-        <v>42</v>
-      </c>
-      <c r="G1403">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1404">
-        <v>3</v>
-      </c>
-      <c r="B1404">
-        <v>28</v>
-      </c>
-      <c r="C1404" s="2">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D1404">
-        <v>139</v>
-      </c>
-      <c r="E1404" t="s">
-        <v>557</v>
-      </c>
-      <c r="F1404">
-        <v>42</v>
-      </c>
-      <c r="G1404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1405">
-        <v>3</v>
-      </c>
-      <c r="B1405">
-        <v>29</v>
-      </c>
-      <c r="C1405" s="2">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D1405">
-        <v>204</v>
-      </c>
-      <c r="E1405" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1405">
-        <v>42</v>
-      </c>
-      <c r="G1405">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1406">
-        <v>3</v>
-      </c>
-      <c r="B1406">
-        <v>29</v>
-      </c>
-      <c r="C1406" s="2">
-        <v>0.31805555555555554</v>
-      </c>
-      <c r="D1406">
-        <v>160</v>
-      </c>
-      <c r="E1406" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1406">
-        <v>42</v>
-      </c>
-      <c r="G1406">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1407">
-        <v>3</v>
-      </c>
-      <c r="B1407">
-        <v>29</v>
-      </c>
-      <c r="C1407" s="2">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="D1407">
-        <v>201</v>
-      </c>
-      <c r="E1407" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1407">
-        <v>42</v>
-      </c>
-      <c r="G1407">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1408">
-        <v>3</v>
-      </c>
-      <c r="B1408">
-        <v>29</v>
-      </c>
-      <c r="C1408" s="2">
-        <v>0.74444444444444446</v>
-      </c>
-      <c r="D1408">
-        <v>260</v>
-      </c>
-      <c r="E1408" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1408">
-        <v>42</v>
-      </c>
-      <c r="G1408">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1409">
-        <v>3</v>
-      </c>
-      <c r="B1409">
-        <v>30</v>
-      </c>
-      <c r="C1409" s="2">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D1409">
-        <v>256</v>
-      </c>
-      <c r="E1409" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1409">
-        <v>42</v>
-      </c>
-      <c r="G1409">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1410">
-        <v>3</v>
-      </c>
-      <c r="B1410">
-        <v>30</v>
-      </c>
-      <c r="C1410" s="2">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D1410">
-        <v>246</v>
-      </c>
-      <c r="E1410" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1410">
-        <v>42</v>
-      </c>
-      <c r="G1410">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1411">
-        <v>3</v>
-      </c>
-      <c r="B1411">
-        <v>31</v>
-      </c>
-      <c r="C1411" s="2">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="D1411">
-        <v>93</v>
-      </c>
-      <c r="E1411" t="s">
-        <v>560</v>
-      </c>
-      <c r="F1411">
-        <v>42</v>
-      </c>
-      <c r="G1411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1412">
-        <v>4</v>
-      </c>
-      <c r="B1412">
-        <v>1</v>
-      </c>
-      <c r="C1412" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1412">
-        <v>167</v>
-      </c>
-      <c r="E1412" s="3">
-        <v>45748</v>
-      </c>
-      <c r="F1412">
-        <v>42</v>
-      </c>
-      <c r="G1412">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1413">
-        <v>4</v>
-      </c>
-      <c r="B1413">
-        <v>1</v>
-      </c>
-      <c r="C1413" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1413">
-        <v>71</v>
-      </c>
-      <c r="E1413" s="3">
-        <v>45748</v>
-      </c>
-      <c r="F1413">
-        <v>42</v>
-      </c>
-      <c r="G1413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1414">
-        <v>4</v>
-      </c>
-      <c r="B1414">
-        <v>1</v>
-      </c>
-      <c r="C1414" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1414">
-        <v>219</v>
-      </c>
-      <c r="E1414" s="3">
-        <v>45748</v>
-      </c>
-      <c r="F1414">
-        <v>42</v>
-      </c>
-      <c r="G1414">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1415">
-        <v>4</v>
-      </c>
-      <c r="B1415">
-        <v>2</v>
-      </c>
-      <c r="C1415" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1415">
-        <v>97</v>
-      </c>
-      <c r="E1415" s="3">
-        <v>45749</v>
-      </c>
-      <c r="F1415">
-        <v>42</v>
-      </c>
-      <c r="G1415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1416">
-        <v>4</v>
-      </c>
-      <c r="B1416">
-        <v>2</v>
-      </c>
-      <c r="C1416" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1416">
-        <v>180</v>
-      </c>
-      <c r="E1416" s="3">
-        <v>45749</v>
-      </c>
-      <c r="F1416">
-        <v>42</v>
-      </c>
-      <c r="G1416">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1417">
-        <v>4</v>
-      </c>
-      <c r="B1417">
-        <v>2</v>
-      </c>
-      <c r="C1417" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1417">
-        <v>164</v>
-      </c>
-      <c r="E1417" s="3">
-        <v>45749</v>
-      </c>
-      <c r="F1417">
-        <v>42</v>
-      </c>
-      <c r="G1417">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1418">
-        <v>4</v>
-      </c>
-      <c r="B1418">
-        <v>3</v>
-      </c>
-      <c r="C1418" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1418">
-        <v>215</v>
-      </c>
-      <c r="E1418" s="3">
-        <v>45750</v>
-      </c>
-      <c r="F1418">
-        <v>42</v>
-      </c>
-      <c r="G1418">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1419">
-        <v>4</v>
-      </c>
-      <c r="B1419">
-        <v>3</v>
-      </c>
-      <c r="C1419" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1419">
-        <v>80</v>
-      </c>
-      <c r="E1419" s="3">
-        <v>45750</v>
-      </c>
-      <c r="F1419">
-        <v>42</v>
-      </c>
-      <c r="G1419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1420">
-        <v>4</v>
-      </c>
-      <c r="B1420">
-        <v>3</v>
-      </c>
-      <c r="C1420" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1420">
-        <v>213</v>
-      </c>
-      <c r="E1420" s="3">
-        <v>45750</v>
-      </c>
-      <c r="F1420">
-        <v>42</v>
-      </c>
-      <c r="G1420">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1421">
-        <v>4</v>
-      </c>
-      <c r="B1421">
-        <v>4</v>
-      </c>
-      <c r="C1421" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1421">
-        <v>244</v>
-      </c>
-      <c r="E1421" s="3">
-        <v>45751</v>
-      </c>
-      <c r="F1421">
-        <v>42</v>
-      </c>
-      <c r="G1421">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1422">
-        <v>4</v>
-      </c>
-      <c r="B1422">
-        <v>4</v>
-      </c>
-      <c r="C1422" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1422">
-        <v>104</v>
-      </c>
-      <c r="E1422" s="3">
-        <v>45751</v>
-      </c>
-      <c r="F1422">
-        <v>42</v>
-      </c>
-      <c r="G1422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1423">
-        <v>4</v>
-      </c>
-      <c r="B1423">
-        <v>4</v>
-      </c>
-      <c r="C1423" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1423">
-        <v>139</v>
-      </c>
-      <c r="E1423" s="3">
-        <v>45751</v>
-      </c>
-      <c r="F1423">
-        <v>42</v>
-      </c>
-      <c r="G1423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1424">
-        <v>4</v>
-      </c>
-      <c r="B1424">
-        <v>5</v>
-      </c>
-      <c r="C1424" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1424">
-        <v>206</v>
-      </c>
-      <c r="E1424" s="3">
-        <v>45752</v>
-      </c>
-      <c r="F1424">
-        <v>42</v>
-      </c>
-      <c r="G1424">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1425">
-        <v>4</v>
-      </c>
-      <c r="B1425">
-        <v>5</v>
-      </c>
-      <c r="C1425" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1425">
-        <v>237</v>
-      </c>
-      <c r="E1425" s="3">
-        <v>45752</v>
-      </c>
-      <c r="F1425">
-        <v>42</v>
-      </c>
-      <c r="G1425">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1426">
-        <v>4</v>
-      </c>
-      <c r="B1426">
-        <v>5</v>
-      </c>
-      <c r="C1426" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1426">
-        <v>172</v>
-      </c>
-      <c r="E1426" s="3">
-        <v>45752</v>
-      </c>
-      <c r="F1426">
-        <v>42</v>
-      </c>
-      <c r="G1426">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1427">
-        <v>4</v>
-      </c>
-      <c r="B1427">
-        <v>6</v>
-      </c>
-      <c r="C1427" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1427">
-        <v>129</v>
-      </c>
-      <c r="E1427" s="3">
-        <v>45753</v>
-      </c>
-      <c r="F1427">
-        <v>42</v>
-      </c>
-      <c r="G1427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1428">
-        <v>4</v>
-      </c>
-      <c r="B1428">
-        <v>6</v>
-      </c>
-      <c r="C1428" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1428">
-        <v>178</v>
-      </c>
-      <c r="E1428" s="3">
-        <v>45753</v>
-      </c>
-      <c r="F1428">
-        <v>42</v>
-      </c>
-      <c r="G1428">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1429">
-        <v>4</v>
-      </c>
-      <c r="B1429">
-        <v>6</v>
-      </c>
-      <c r="C1429" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1429">
-        <v>149</v>
-      </c>
-      <c r="E1429" s="3">
-        <v>45753</v>
-      </c>
-      <c r="F1429">
-        <v>42</v>
-      </c>
-      <c r="G1429">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1430">
-        <v>4</v>
-      </c>
-      <c r="B1430">
-        <v>7</v>
-      </c>
-      <c r="C1430" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1430">
-        <v>104</v>
-      </c>
-      <c r="E1430" s="3">
-        <v>45754</v>
-      </c>
-      <c r="F1430">
-        <v>42</v>
-      </c>
-      <c r="G1430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1431">
-        <v>4</v>
-      </c>
-      <c r="B1431">
-        <v>7</v>
-      </c>
-      <c r="C1431" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1431">
-        <v>136</v>
-      </c>
-      <c r="E1431" s="3">
-        <v>45754</v>
-      </c>
-      <c r="F1431">
-        <v>42</v>
-      </c>
-      <c r="G1431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1432">
-        <v>4</v>
-      </c>
-      <c r="B1432">
-        <v>7</v>
-      </c>
-      <c r="C1432" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1432">
-        <v>101</v>
-      </c>
-      <c r="E1432" s="3">
-        <v>45754</v>
-      </c>
-      <c r="F1432">
-        <v>42</v>
-      </c>
-      <c r="G1432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1433">
-        <v>4</v>
-      </c>
-      <c r="B1433">
-        <v>8</v>
-      </c>
-      <c r="C1433" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1433">
-        <v>235</v>
-      </c>
-      <c r="E1433" s="3">
-        <v>45755</v>
-      </c>
-      <c r="F1433">
-        <v>42</v>
-      </c>
-      <c r="G1433">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1434">
-        <v>4</v>
-      </c>
-      <c r="B1434">
-        <v>8</v>
-      </c>
-      <c r="C1434" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1434">
-        <v>171</v>
-      </c>
-      <c r="E1434" s="3">
-        <v>45755</v>
-      </c>
-      <c r="F1434">
-        <v>42</v>
-      </c>
-      <c r="G1434">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1435">
-        <v>4</v>
-      </c>
-      <c r="B1435">
-        <v>8</v>
-      </c>
-      <c r="C1435" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1435">
-        <v>101</v>
-      </c>
-      <c r="E1435" s="3">
-        <v>45755</v>
-      </c>
-      <c r="F1435">
-        <v>42</v>
-      </c>
-      <c r="G1435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1436">
-        <v>4</v>
-      </c>
-      <c r="B1436">
-        <v>9</v>
-      </c>
-      <c r="C1436" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1436">
-        <v>190</v>
-      </c>
-      <c r="E1436" s="3">
-        <v>45756</v>
-      </c>
-      <c r="F1436">
-        <v>42</v>
-      </c>
-      <c r="G1436">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1437">
-        <v>4</v>
-      </c>
-      <c r="B1437">
-        <v>9</v>
-      </c>
-      <c r="C1437" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1437">
-        <v>79</v>
-      </c>
-      <c r="E1437" s="3">
-        <v>45756</v>
-      </c>
-      <c r="F1437">
-        <v>42</v>
-      </c>
-      <c r="G1437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1438">
-        <v>4</v>
-      </c>
-      <c r="B1438">
-        <v>9</v>
-      </c>
-      <c r="C1438" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1438">
-        <v>106</v>
-      </c>
-      <c r="E1438" s="3">
-        <v>45756</v>
-      </c>
-      <c r="F1438">
-        <v>42</v>
-      </c>
-      <c r="G1438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1439">
-        <v>4</v>
-      </c>
-      <c r="B1439">
-        <v>10</v>
-      </c>
-      <c r="C1439" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1439">
-        <v>230</v>
-      </c>
-      <c r="E1439" s="3">
-        <v>45757</v>
-      </c>
-      <c r="F1439">
-        <v>42</v>
-      </c>
-      <c r="G1439">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1440">
-        <v>4</v>
-      </c>
-      <c r="B1440">
-        <v>10</v>
-      </c>
-      <c r="C1440" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1440">
-        <v>166</v>
-      </c>
-      <c r="E1440" s="3">
-        <v>45757</v>
-      </c>
-      <c r="F1440">
-        <v>42</v>
-      </c>
-      <c r="G1440">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1441">
-        <v>4</v>
-      </c>
-      <c r="B1441">
-        <v>10</v>
-      </c>
-      <c r="C1441" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1441">
-        <v>197</v>
-      </c>
-      <c r="E1441" s="3">
-        <v>45757</v>
-      </c>
-      <c r="F1441">
-        <v>42</v>
-      </c>
-      <c r="G1441">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1442">
-        <v>4</v>
-      </c>
-      <c r="B1442">
-        <v>11</v>
-      </c>
-      <c r="C1442" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1442">
-        <v>158</v>
-      </c>
-      <c r="E1442" s="3">
-        <v>45758</v>
-      </c>
-      <c r="F1442">
-        <v>42</v>
-      </c>
-      <c r="G1442">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1443">
-        <v>4</v>
-      </c>
-      <c r="B1443">
-        <v>11</v>
-      </c>
-      <c r="C1443" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1443">
-        <v>179</v>
-      </c>
-      <c r="E1443" s="3">
-        <v>45758</v>
-      </c>
-      <c r="F1443">
-        <v>42</v>
-      </c>
-      <c r="G1443">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1444">
-        <v>4</v>
-      </c>
-      <c r="B1444">
-        <v>11</v>
-      </c>
-      <c r="C1444" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1444">
-        <v>79</v>
-      </c>
-      <c r="E1444" s="3">
-        <v>45758</v>
-      </c>
-      <c r="F1444">
-        <v>42</v>
-      </c>
-      <c r="G1444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1445">
-        <v>4</v>
-      </c>
-      <c r="B1445">
-        <v>12</v>
-      </c>
-      <c r="C1445" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1445">
-        <v>115</v>
-      </c>
-      <c r="E1445" s="3">
-        <v>45759</v>
-      </c>
-      <c r="F1445">
-        <v>42</v>
-      </c>
-      <c r="G1445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1446">
-        <v>4</v>
-      </c>
-      <c r="B1446">
-        <v>12</v>
-      </c>
-      <c r="C1446" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1446">
-        <v>194</v>
-      </c>
-      <c r="E1446" s="3">
-        <v>45759</v>
-      </c>
-      <c r="F1446">
-        <v>42</v>
-      </c>
-      <c r="G1446">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1447">
-        <v>4</v>
-      </c>
-      <c r="B1447">
-        <v>12</v>
-      </c>
-      <c r="C1447" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1447">
-        <v>146</v>
-      </c>
-      <c r="E1447" s="3">
-        <v>45759</v>
-      </c>
-      <c r="F1447">
-        <v>42</v>
-      </c>
-      <c r="G1447">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1448">
-        <v>4</v>
-      </c>
-      <c r="B1448">
-        <v>13</v>
-      </c>
-      <c r="C1448" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1448">
-        <v>193</v>
-      </c>
-      <c r="E1448" s="3">
-        <v>45760</v>
-      </c>
-      <c r="F1448">
-        <v>42</v>
-      </c>
-      <c r="G1448">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1449">
-        <v>4</v>
-      </c>
-      <c r="B1449">
-        <v>13</v>
-      </c>
-      <c r="C1449" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1449">
-        <v>184</v>
-      </c>
-      <c r="E1449" s="3">
-        <v>45760</v>
-      </c>
-      <c r="F1449">
-        <v>42</v>
-      </c>
-      <c r="G1449">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1450">
-        <v>4</v>
-      </c>
-      <c r="B1450">
-        <v>13</v>
-      </c>
-      <c r="C1450" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1450">
-        <v>203</v>
-      </c>
-      <c r="E1450" s="3">
-        <v>45760</v>
-      </c>
-      <c r="F1450">
-        <v>42</v>
-      </c>
-      <c r="G1450">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1451">
-        <v>4</v>
-      </c>
-      <c r="B1451">
-        <v>14</v>
-      </c>
-      <c r="C1451" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1451">
-        <v>167</v>
-      </c>
-      <c r="E1451" s="3">
-        <v>45761</v>
-      </c>
-      <c r="F1451">
-        <v>42</v>
-      </c>
-      <c r="G1451">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1452">
-        <v>4</v>
-      </c>
-      <c r="B1452">
-        <v>14</v>
-      </c>
-      <c r="C1452" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1452">
-        <v>163</v>
-      </c>
-      <c r="E1452" s="3">
-        <v>45761</v>
-      </c>
-      <c r="F1452">
-        <v>42</v>
-      </c>
-      <c r="G1452">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1453">
-        <v>4</v>
-      </c>
-      <c r="B1453">
-        <v>14</v>
-      </c>
-      <c r="C1453" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1453">
-        <v>116</v>
-      </c>
-      <c r="E1453" s="3">
-        <v>45761</v>
-      </c>
-      <c r="F1453">
-        <v>42</v>
-      </c>
-      <c r="G1453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1454">
-        <v>4</v>
-      </c>
-      <c r="B1454">
-        <v>15</v>
-      </c>
-      <c r="C1454" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1454">
-        <v>173</v>
-      </c>
-      <c r="E1454" s="3">
-        <v>45762</v>
-      </c>
-      <c r="F1454">
-        <v>42</v>
-      </c>
-      <c r="G1454">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1455">
-        <v>4</v>
-      </c>
-      <c r="B1455">
-        <v>15</v>
-      </c>
-      <c r="C1455" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1455">
-        <v>203</v>
-      </c>
-      <c r="E1455" s="3">
-        <v>45762</v>
-      </c>
-      <c r="F1455">
-        <v>42</v>
-      </c>
-      <c r="G1455">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1456">
-        <v>4</v>
-      </c>
-      <c r="B1456">
-        <v>15</v>
-      </c>
-      <c r="C1456" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1456">
-        <v>168</v>
-      </c>
-      <c r="E1456" s="3">
-        <v>45762</v>
-      </c>
-      <c r="F1456">
-        <v>42</v>
-      </c>
-      <c r="G1456">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1457">
-        <v>4</v>
-      </c>
-      <c r="B1457">
-        <v>16</v>
-      </c>
-      <c r="C1457" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1457">
-        <v>206</v>
-      </c>
-      <c r="E1457" s="3">
-        <v>45763</v>
-      </c>
-      <c r="F1457">
-        <v>42</v>
-      </c>
-      <c r="G1457">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1458">
-        <v>4</v>
-      </c>
-      <c r="B1458">
-        <v>16</v>
-      </c>
-      <c r="C1458" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1458">
-        <v>124</v>
-      </c>
-      <c r="E1458" s="3">
-        <v>45763</v>
-      </c>
-      <c r="F1458">
-        <v>42</v>
-      </c>
-      <c r="G1458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1459">
-        <v>4</v>
-      </c>
-      <c r="B1459">
-        <v>16</v>
-      </c>
-      <c r="C1459" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1459">
-        <v>87</v>
-      </c>
-      <c r="E1459" s="3">
-        <v>45763</v>
-      </c>
-      <c r="F1459">
-        <v>42</v>
-      </c>
-      <c r="G1459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1460">
-        <v>4</v>
-      </c>
-      <c r="B1460">
-        <v>17</v>
-      </c>
-      <c r="C1460" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1460">
-        <v>224</v>
-      </c>
-      <c r="E1460" s="3">
-        <v>45764</v>
-      </c>
-      <c r="F1460">
-        <v>42</v>
-      </c>
-      <c r="G1460">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1461">
-        <v>4</v>
-      </c>
-      <c r="B1461">
-        <v>17</v>
-      </c>
-      <c r="C1461" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1461">
-        <v>144</v>
-      </c>
-      <c r="E1461" s="3">
-        <v>45764</v>
-      </c>
-      <c r="F1461">
-        <v>42</v>
-      </c>
-      <c r="G1461">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1462">
-        <v>4</v>
-      </c>
-      <c r="B1462">
-        <v>17</v>
-      </c>
-      <c r="C1462" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1462">
-        <v>118</v>
-      </c>
-      <c r="E1462" s="3">
-        <v>45764</v>
-      </c>
-      <c r="F1462">
-        <v>42</v>
-      </c>
-      <c r="G1462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1463">
-        <v>4</v>
-      </c>
-      <c r="B1463">
-        <v>18</v>
-      </c>
-      <c r="C1463" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1463">
-        <v>214</v>
-      </c>
-      <c r="E1463" s="3">
-        <v>45765</v>
-      </c>
-      <c r="F1463">
-        <v>42</v>
-      </c>
-      <c r="G1463">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1464">
-        <v>4</v>
-      </c>
-      <c r="B1464">
-        <v>18</v>
-      </c>
-      <c r="C1464" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1464">
-        <v>93</v>
-      </c>
-      <c r="E1464" s="3">
-        <v>45765</v>
-      </c>
-      <c r="F1464">
-        <v>42</v>
-      </c>
-      <c r="G1464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1465">
-        <v>4</v>
-      </c>
-      <c r="B1465">
-        <v>18</v>
-      </c>
-      <c r="C1465" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1465">
-        <v>136</v>
-      </c>
-      <c r="E1465" s="3">
-        <v>45765</v>
-      </c>
-      <c r="F1465">
-        <v>42</v>
-      </c>
-      <c r="G1465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1466">
-        <v>4</v>
-      </c>
-      <c r="B1466">
-        <v>19</v>
-      </c>
-      <c r="C1466" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1466">
-        <v>202</v>
-      </c>
-      <c r="E1466" s="3">
-        <v>45766</v>
-      </c>
-      <c r="F1466">
-        <v>42</v>
-      </c>
-      <c r="G1466">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1467">
-        <v>4</v>
-      </c>
-      <c r="B1467">
-        <v>19</v>
-      </c>
-      <c r="C1467" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1467">
-        <v>101</v>
-      </c>
-      <c r="E1467" s="3">
-        <v>45766</v>
-      </c>
-      <c r="F1467">
-        <v>42</v>
-      </c>
-      <c r="G1467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1468">
-        <v>4</v>
-      </c>
-      <c r="B1468">
-        <v>19</v>
-      </c>
-      <c r="C1468" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1468">
-        <v>139</v>
-      </c>
-      <c r="E1468" s="3">
-        <v>45766</v>
-      </c>
-      <c r="F1468">
-        <v>42</v>
-      </c>
-      <c r="G1468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1469">
-        <v>4</v>
-      </c>
-      <c r="B1469">
-        <v>20</v>
-      </c>
-      <c r="C1469" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1469">
-        <v>102</v>
-      </c>
-      <c r="E1469" s="3">
-        <v>45767</v>
-      </c>
-      <c r="F1469">
-        <v>42</v>
-      </c>
-      <c r="G1469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1470">
-        <v>4</v>
-      </c>
-      <c r="B1470">
-        <v>20</v>
-      </c>
-      <c r="C1470" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1470">
-        <v>83</v>
-      </c>
-      <c r="E1470" s="3">
-        <v>45767</v>
-      </c>
-      <c r="F1470">
-        <v>42</v>
-      </c>
-      <c r="G1470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1471">
-        <v>4</v>
-      </c>
-      <c r="B1471">
-        <v>20</v>
-      </c>
-      <c r="C1471" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1471">
-        <v>159</v>
-      </c>
-      <c r="E1471" s="3">
-        <v>45767</v>
-      </c>
-      <c r="F1471">
-        <v>42</v>
-      </c>
-      <c r="G1471">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1472">
-        <v>4</v>
-      </c>
-      <c r="B1472">
-        <v>21</v>
-      </c>
-      <c r="C1472" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1472">
-        <v>205</v>
-      </c>
-      <c r="E1472" s="3">
-        <v>45768</v>
-      </c>
-      <c r="F1472">
-        <v>42</v>
-      </c>
-      <c r="G1472">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1473">
-        <v>4</v>
-      </c>
-      <c r="B1473">
-        <v>21</v>
-      </c>
-      <c r="C1473" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1473">
-        <v>108</v>
-      </c>
-      <c r="E1473" s="3">
-        <v>45768</v>
-      </c>
-      <c r="F1473">
-        <v>42</v>
-      </c>
-      <c r="G1473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1474">
-        <v>4</v>
-      </c>
-      <c r="B1474">
-        <v>21</v>
-      </c>
-      <c r="C1474" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1474">
-        <v>132</v>
-      </c>
-      <c r="E1474" s="3">
-        <v>45768</v>
-      </c>
-      <c r="F1474">
-        <v>42</v>
-      </c>
-      <c r="G1474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1475">
-        <v>4</v>
-      </c>
-      <c r="B1475">
-        <v>22</v>
-      </c>
-      <c r="C1475" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1475">
-        <v>127</v>
-      </c>
-      <c r="E1475" s="3">
-        <v>45769</v>
-      </c>
-      <c r="F1475">
-        <v>42</v>
-      </c>
-      <c r="G1475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1476">
-        <v>4</v>
-      </c>
-      <c r="B1476">
-        <v>22</v>
-      </c>
-      <c r="C1476" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1476">
-        <v>110</v>
-      </c>
-      <c r="E1476" s="3">
-        <v>45769</v>
-      </c>
-      <c r="F1476">
-        <v>42</v>
-      </c>
-      <c r="G1476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1477">
-        <v>4</v>
-      </c>
-      <c r="B1477">
-        <v>22</v>
-      </c>
-      <c r="C1477" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1477">
-        <v>238</v>
-      </c>
-      <c r="E1477" s="3">
-        <v>45769</v>
-      </c>
-      <c r="F1477">
-        <v>42</v>
-      </c>
-      <c r="G1477">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1478">
-        <v>4</v>
-      </c>
-      <c r="B1478">
-        <v>23</v>
-      </c>
-      <c r="C1478" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1478">
-        <v>196</v>
-      </c>
-      <c r="E1478" s="3">
-        <v>45770</v>
-      </c>
-      <c r="F1478">
-        <v>42</v>
-      </c>
-      <c r="G1478">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1479">
-        <v>4</v>
-      </c>
-      <c r="B1479">
-        <v>23</v>
-      </c>
-      <c r="C1479" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1479">
-        <v>156</v>
-      </c>
-      <c r="E1479" s="3">
-        <v>45770</v>
-      </c>
-      <c r="F1479">
-        <v>42</v>
-      </c>
-      <c r="G1479">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1480">
-        <v>4</v>
-      </c>
-      <c r="B1480">
-        <v>23</v>
-      </c>
-      <c r="C1480" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1480">
-        <v>217</v>
-      </c>
-      <c r="E1480" s="3">
-        <v>45770</v>
-      </c>
-      <c r="F1480">
-        <v>42</v>
-      </c>
-      <c r="G1480">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1481">
-        <v>4</v>
-      </c>
-      <c r="B1481">
-        <v>24</v>
-      </c>
-      <c r="C1481" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1481">
-        <v>172</v>
-      </c>
-      <c r="E1481" s="3">
-        <v>45771</v>
-      </c>
-      <c r="F1481">
-        <v>42</v>
-      </c>
-      <c r="G1481">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1482">
-        <v>4</v>
-      </c>
-      <c r="B1482">
-        <v>24</v>
-      </c>
-      <c r="C1482" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1482">
-        <v>91</v>
-      </c>
-      <c r="E1482" s="3">
-        <v>45771</v>
-      </c>
-      <c r="F1482">
-        <v>42</v>
-      </c>
-      <c r="G1482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1483">
-        <v>4</v>
-      </c>
-      <c r="B1483">
-        <v>24</v>
-      </c>
-      <c r="C1483" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1483">
-        <v>170</v>
-      </c>
-      <c r="E1483" s="3">
-        <v>45771</v>
-      </c>
-      <c r="F1483">
-        <v>42</v>
-      </c>
-      <c r="G1483">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1484">
-        <v>4</v>
-      </c>
-      <c r="B1484">
-        <v>25</v>
-      </c>
-      <c r="C1484" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1484">
-        <v>175</v>
-      </c>
-      <c r="E1484" s="3">
-        <v>45772</v>
-      </c>
-      <c r="F1484">
-        <v>42</v>
-      </c>
-      <c r="G1484">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1485">
-        <v>4</v>
-      </c>
-      <c r="B1485">
-        <v>25</v>
-      </c>
-      <c r="C1485" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1485">
-        <v>224</v>
-      </c>
-      <c r="E1485" s="3">
-        <v>45772</v>
-      </c>
-      <c r="F1485">
-        <v>42</v>
-      </c>
-      <c r="G1485">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1486">
-        <v>4</v>
-      </c>
-      <c r="B1486">
-        <v>25</v>
-      </c>
-      <c r="C1486" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1486">
-        <v>171</v>
-      </c>
-      <c r="E1486" s="3">
-        <v>45772</v>
-      </c>
-      <c r="F1486">
-        <v>42</v>
-      </c>
-      <c r="G1486">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1487">
-        <v>4</v>
-      </c>
-      <c r="B1487">
-        <v>26</v>
-      </c>
-      <c r="C1487" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1487">
-        <v>85</v>
-      </c>
-      <c r="E1487" s="3">
-        <v>45773</v>
-      </c>
-      <c r="F1487">
-        <v>42</v>
-      </c>
-      <c r="G1487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1488">
-        <v>4</v>
-      </c>
-      <c r="B1488">
-        <v>26</v>
-      </c>
-      <c r="C1488" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1488">
-        <v>128</v>
-      </c>
-      <c r="E1488" s="3">
-        <v>45773</v>
-      </c>
-      <c r="F1488">
-        <v>42</v>
-      </c>
-      <c r="G1488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1489">
-        <v>4</v>
-      </c>
-      <c r="B1489">
-        <v>26</v>
-      </c>
-      <c r="C1489" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1489">
-        <v>195</v>
-      </c>
-      <c r="E1489" s="3">
-        <v>45773</v>
-      </c>
-      <c r="F1489">
-        <v>42</v>
-      </c>
-      <c r="G1489">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1490">
-        <v>4</v>
-      </c>
-      <c r="B1490">
-        <v>27</v>
-      </c>
-      <c r="C1490" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1490">
-        <v>101</v>
-      </c>
-      <c r="E1490" s="3">
-        <v>45774</v>
-      </c>
-      <c r="F1490">
-        <v>42</v>
-      </c>
-      <c r="G1490">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1491">
-        <v>4</v>
-      </c>
-      <c r="B1491">
-        <v>27</v>
-      </c>
-      <c r="C1491" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1491">
-        <v>130</v>
-      </c>
-      <c r="E1491" s="3">
-        <v>45774</v>
-      </c>
-      <c r="F1491">
-        <v>42</v>
-      </c>
-      <c r="G1491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1492">
-        <v>4</v>
-      </c>
-      <c r="B1492">
-        <v>27</v>
-      </c>
-      <c r="C1492" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1492">
-        <v>83</v>
-      </c>
-      <c r="E1492" s="3">
-        <v>45774</v>
-      </c>
-      <c r="F1492">
-        <v>42</v>
-      </c>
-      <c r="G1492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1493">
-        <v>4</v>
-      </c>
-      <c r="B1493">
-        <v>28</v>
-      </c>
-      <c r="C1493" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1493">
-        <v>239</v>
-      </c>
-      <c r="E1493" s="3">
-        <v>45775</v>
-      </c>
-      <c r="F1493">
-        <v>42</v>
-      </c>
-      <c r="G1493">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1494">
-        <v>4</v>
-      </c>
-      <c r="B1494">
-        <v>28</v>
-      </c>
-      <c r="C1494" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1494">
-        <v>243</v>
-      </c>
-      <c r="E1494" s="3">
-        <v>45775</v>
-      </c>
-      <c r="F1494">
-        <v>42</v>
-      </c>
-      <c r="G1494">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1495">
-        <v>4</v>
-      </c>
-      <c r="B1495">
-        <v>28</v>
-      </c>
-      <c r="C1495" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1495">
-        <v>148</v>
-      </c>
-      <c r="E1495" s="3">
-        <v>45775</v>
-      </c>
-      <c r="F1495">
-        <v>42</v>
-      </c>
-      <c r="G1495">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1496">
-        <v>4</v>
-      </c>
-      <c r="B1496">
-        <v>29</v>
-      </c>
-      <c r="C1496" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1496">
-        <v>230</v>
-      </c>
-      <c r="E1496" s="3">
-        <v>45776</v>
-      </c>
-      <c r="F1496">
-        <v>42</v>
-      </c>
-      <c r="G1496">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1497">
-        <v>4</v>
-      </c>
-      <c r="B1497">
-        <v>29</v>
-      </c>
-      <c r="C1497" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1497">
-        <v>210</v>
-      </c>
-      <c r="E1497" s="3">
-        <v>45776</v>
-      </c>
-      <c r="F1497">
-        <v>42</v>
-      </c>
-      <c r="G1497">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1498">
-        <v>4</v>
-      </c>
-      <c r="B1498">
-        <v>29</v>
-      </c>
-      <c r="C1498" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1498">
-        <v>138</v>
-      </c>
-      <c r="E1498" s="3">
-        <v>45776</v>
-      </c>
-      <c r="F1498">
-        <v>42</v>
-      </c>
-      <c r="G1498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1499">
-        <v>4</v>
-      </c>
-      <c r="B1499">
-        <v>30</v>
-      </c>
-      <c r="C1499" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1499">
-        <v>193</v>
-      </c>
-      <c r="E1499" s="3">
-        <v>45777</v>
-      </c>
-      <c r="F1499">
-        <v>42</v>
-      </c>
-      <c r="G1499">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1500">
-        <v>4</v>
-      </c>
-      <c r="B1500">
-        <v>30</v>
-      </c>
-      <c r="C1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1500">
-        <v>157</v>
-      </c>
-      <c r="E1500" s="3">
-        <v>45777</v>
-      </c>
-      <c r="F1500">
-        <v>42</v>
-      </c>
-      <c r="G1500">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1501">
-        <v>4</v>
-      </c>
-      <c r="B1501">
-        <v>30</v>
-      </c>
-      <c r="C1501" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1501">
-        <v>194</v>
-      </c>
-      <c r="E1501" s="3">
-        <v>45777</v>
-      </c>
-      <c r="F1501">
-        <v>42</v>
-      </c>
-      <c r="G1501">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1502">
-        <v>4</v>
-      </c>
-      <c r="B1502">
-        <v>31</v>
-      </c>
-      <c r="C1502" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1502">
-        <v>228</v>
-      </c>
-      <c r="E1502" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1502">
-        <v>42</v>
-      </c>
-      <c r="G1502">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1503">
-        <v>4</v>
-      </c>
-      <c r="B1503">
-        <v>31</v>
-      </c>
-      <c r="C1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1503">
-        <v>232</v>
-      </c>
-      <c r="E1503" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1503">
-        <v>42</v>
-      </c>
-      <c r="G1503">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1504">
-        <v>4</v>
-      </c>
-      <c r="B1504">
-        <v>31</v>
-      </c>
-      <c r="C1504" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1504">
-        <v>88</v>
-      </c>
-      <c r="E1504" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1504">
-        <v>42</v>
-      </c>
-      <c r="G1504">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAFD7C6-FF4B-4A69-8CBE-CB6CA0CAF51F}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF42A53-36CB-4DDA-B427-1D92949D86A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="560">
   <si>
     <t>Mês</t>
   </si>
@@ -1698,6 +1698,21 @@
   </si>
   <si>
     <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>29/03/2025</t>
+  </si>
+  <si>
+    <t>31/04/2025</t>
   </si>
 </sst>
 </file>
@@ -1756,10 +1771,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,11 +2086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1397"/>
+  <dimension ref="A1:G1500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1398" sqref="A1398:XFD1504"/>
+      <selection pane="bottomLeft" activeCell="A1398" sqref="A1398:G1500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34208,6 +34229,2375 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>3</v>
+      </c>
+      <c r="B1398">
+        <v>26</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1398">
+        <v>254</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1398">
+        <v>42</v>
+      </c>
+      <c r="G1398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>3</v>
+      </c>
+      <c r="B1399">
+        <v>26</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1399">
+        <v>96</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1399">
+        <v>42</v>
+      </c>
+      <c r="G1399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>3</v>
+      </c>
+      <c r="B1400">
+        <v>26</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1400">
+        <v>63</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1400">
+        <v>42</v>
+      </c>
+      <c r="G1400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>3</v>
+      </c>
+      <c r="B1401">
+        <v>27</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1401">
+        <v>179</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1401">
+        <v>42</v>
+      </c>
+      <c r="G1401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>3</v>
+      </c>
+      <c r="B1402">
+        <v>27</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1402">
+        <v>93</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1402">
+        <v>42</v>
+      </c>
+      <c r="G1402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>3</v>
+      </c>
+      <c r="B1403">
+        <v>28</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1403">
+        <v>278</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1403">
+        <v>42</v>
+      </c>
+      <c r="G1403">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>3</v>
+      </c>
+      <c r="B1404">
+        <v>28</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1404">
+        <v>139</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1404">
+        <v>42</v>
+      </c>
+      <c r="G1404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>3</v>
+      </c>
+      <c r="B1405">
+        <v>29</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1405">
+        <v>204</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1405">
+        <v>42</v>
+      </c>
+      <c r="G1405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>3</v>
+      </c>
+      <c r="B1406">
+        <v>29</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1406">
+        <v>160</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1406">
+        <v>42</v>
+      </c>
+      <c r="G1406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>3</v>
+      </c>
+      <c r="B1407">
+        <v>29</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1407">
+        <v>201</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1407">
+        <v>42</v>
+      </c>
+      <c r="G1407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>4</v>
+      </c>
+      <c r="B1408">
+        <v>1</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1408">
+        <v>167</v>
+      </c>
+      <c r="E1408" s="2">
+        <v>45748</v>
+      </c>
+      <c r="F1408">
+        <v>42</v>
+      </c>
+      <c r="G1408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>4</v>
+      </c>
+      <c r="B1409">
+        <v>1</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1409">
+        <v>71</v>
+      </c>
+      <c r="E1409" s="2">
+        <v>45748</v>
+      </c>
+      <c r="F1409">
+        <v>42</v>
+      </c>
+      <c r="G1409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>4</v>
+      </c>
+      <c r="B1410">
+        <v>1</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1410">
+        <v>219</v>
+      </c>
+      <c r="E1410" s="2">
+        <v>45748</v>
+      </c>
+      <c r="F1410">
+        <v>42</v>
+      </c>
+      <c r="G1410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>4</v>
+      </c>
+      <c r="B1411">
+        <v>2</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1411">
+        <v>97</v>
+      </c>
+      <c r="E1411" s="2">
+        <v>45749</v>
+      </c>
+      <c r="F1411">
+        <v>42</v>
+      </c>
+      <c r="G1411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>4</v>
+      </c>
+      <c r="B1412">
+        <v>2</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1412">
+        <v>180</v>
+      </c>
+      <c r="E1412" s="2">
+        <v>45749</v>
+      </c>
+      <c r="F1412">
+        <v>42</v>
+      </c>
+      <c r="G1412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>4</v>
+      </c>
+      <c r="B1413">
+        <v>2</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1413">
+        <v>164</v>
+      </c>
+      <c r="E1413" s="2">
+        <v>45749</v>
+      </c>
+      <c r="F1413">
+        <v>42</v>
+      </c>
+      <c r="G1413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>4</v>
+      </c>
+      <c r="B1414">
+        <v>3</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1414">
+        <v>215</v>
+      </c>
+      <c r="E1414" s="2">
+        <v>45750</v>
+      </c>
+      <c r="F1414">
+        <v>42</v>
+      </c>
+      <c r="G1414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>4</v>
+      </c>
+      <c r="B1415">
+        <v>3</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1415">
+        <v>80</v>
+      </c>
+      <c r="E1415" s="2">
+        <v>45750</v>
+      </c>
+      <c r="F1415">
+        <v>42</v>
+      </c>
+      <c r="G1415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>4</v>
+      </c>
+      <c r="B1416">
+        <v>3</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1416">
+        <v>213</v>
+      </c>
+      <c r="E1416" s="2">
+        <v>45750</v>
+      </c>
+      <c r="F1416">
+        <v>42</v>
+      </c>
+      <c r="G1416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>4</v>
+      </c>
+      <c r="B1417">
+        <v>4</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1417">
+        <v>244</v>
+      </c>
+      <c r="E1417" s="2">
+        <v>45751</v>
+      </c>
+      <c r="F1417">
+        <v>42</v>
+      </c>
+      <c r="G1417">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>4</v>
+      </c>
+      <c r="B1418">
+        <v>4</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1418">
+        <v>104</v>
+      </c>
+      <c r="E1418" s="2">
+        <v>45751</v>
+      </c>
+      <c r="F1418">
+        <v>42</v>
+      </c>
+      <c r="G1418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>4</v>
+      </c>
+      <c r="B1419">
+        <v>4</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1419">
+        <v>139</v>
+      </c>
+      <c r="E1419" s="2">
+        <v>45751</v>
+      </c>
+      <c r="F1419">
+        <v>42</v>
+      </c>
+      <c r="G1419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>4</v>
+      </c>
+      <c r="B1420">
+        <v>5</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1420">
+        <v>206</v>
+      </c>
+      <c r="E1420" s="2">
+        <v>45752</v>
+      </c>
+      <c r="F1420">
+        <v>42</v>
+      </c>
+      <c r="G1420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>4</v>
+      </c>
+      <c r="B1421">
+        <v>5</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1421">
+        <v>237</v>
+      </c>
+      <c r="E1421" s="2">
+        <v>45752</v>
+      </c>
+      <c r="F1421">
+        <v>42</v>
+      </c>
+      <c r="G1421">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>4</v>
+      </c>
+      <c r="B1422">
+        <v>5</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1422">
+        <v>172</v>
+      </c>
+      <c r="E1422" s="2">
+        <v>45752</v>
+      </c>
+      <c r="F1422">
+        <v>42</v>
+      </c>
+      <c r="G1422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>4</v>
+      </c>
+      <c r="B1423">
+        <v>6</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1423">
+        <v>129</v>
+      </c>
+      <c r="E1423" s="2">
+        <v>45753</v>
+      </c>
+      <c r="F1423">
+        <v>42</v>
+      </c>
+      <c r="G1423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>4</v>
+      </c>
+      <c r="B1424">
+        <v>6</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1424">
+        <v>178</v>
+      </c>
+      <c r="E1424" s="2">
+        <v>45753</v>
+      </c>
+      <c r="F1424">
+        <v>42</v>
+      </c>
+      <c r="G1424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>4</v>
+      </c>
+      <c r="B1425">
+        <v>6</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1425">
+        <v>149</v>
+      </c>
+      <c r="E1425" s="2">
+        <v>45753</v>
+      </c>
+      <c r="F1425">
+        <v>42</v>
+      </c>
+      <c r="G1425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>4</v>
+      </c>
+      <c r="B1426">
+        <v>7</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1426">
+        <v>104</v>
+      </c>
+      <c r="E1426" s="2">
+        <v>45754</v>
+      </c>
+      <c r="F1426">
+        <v>42</v>
+      </c>
+      <c r="G1426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>4</v>
+      </c>
+      <c r="B1427">
+        <v>7</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1427">
+        <v>136</v>
+      </c>
+      <c r="E1427" s="2">
+        <v>45754</v>
+      </c>
+      <c r="F1427">
+        <v>42</v>
+      </c>
+      <c r="G1427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>4</v>
+      </c>
+      <c r="B1428">
+        <v>7</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1428">
+        <v>101</v>
+      </c>
+      <c r="E1428" s="2">
+        <v>45754</v>
+      </c>
+      <c r="F1428">
+        <v>42</v>
+      </c>
+      <c r="G1428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>4</v>
+      </c>
+      <c r="B1429">
+        <v>8</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1429">
+        <v>235</v>
+      </c>
+      <c r="E1429" s="2">
+        <v>45755</v>
+      </c>
+      <c r="F1429">
+        <v>42</v>
+      </c>
+      <c r="G1429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>4</v>
+      </c>
+      <c r="B1430">
+        <v>8</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1430">
+        <v>171</v>
+      </c>
+      <c r="E1430" s="2">
+        <v>45755</v>
+      </c>
+      <c r="F1430">
+        <v>42</v>
+      </c>
+      <c r="G1430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>4</v>
+      </c>
+      <c r="B1431">
+        <v>8</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1431">
+        <v>101</v>
+      </c>
+      <c r="E1431" s="2">
+        <v>45755</v>
+      </c>
+      <c r="F1431">
+        <v>42</v>
+      </c>
+      <c r="G1431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>4</v>
+      </c>
+      <c r="B1432">
+        <v>9</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1432">
+        <v>190</v>
+      </c>
+      <c r="E1432" s="2">
+        <v>45756</v>
+      </c>
+      <c r="F1432">
+        <v>42</v>
+      </c>
+      <c r="G1432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>4</v>
+      </c>
+      <c r="B1433">
+        <v>9</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1433">
+        <v>79</v>
+      </c>
+      <c r="E1433" s="2">
+        <v>45756</v>
+      </c>
+      <c r="F1433">
+        <v>42</v>
+      </c>
+      <c r="G1433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>4</v>
+      </c>
+      <c r="B1434">
+        <v>9</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1434">
+        <v>106</v>
+      </c>
+      <c r="E1434" s="2">
+        <v>45756</v>
+      </c>
+      <c r="F1434">
+        <v>42</v>
+      </c>
+      <c r="G1434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>4</v>
+      </c>
+      <c r="B1435">
+        <v>10</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1435">
+        <v>230</v>
+      </c>
+      <c r="E1435" s="2">
+        <v>45757</v>
+      </c>
+      <c r="F1435">
+        <v>42</v>
+      </c>
+      <c r="G1435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>4</v>
+      </c>
+      <c r="B1436">
+        <v>10</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1436">
+        <v>166</v>
+      </c>
+      <c r="E1436" s="2">
+        <v>45757</v>
+      </c>
+      <c r="F1436">
+        <v>42</v>
+      </c>
+      <c r="G1436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>4</v>
+      </c>
+      <c r="B1437">
+        <v>10</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1437">
+        <v>197</v>
+      </c>
+      <c r="E1437" s="2">
+        <v>45757</v>
+      </c>
+      <c r="F1437">
+        <v>42</v>
+      </c>
+      <c r="G1437">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>4</v>
+      </c>
+      <c r="B1438">
+        <v>11</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1438">
+        <v>158</v>
+      </c>
+      <c r="E1438" s="2">
+        <v>45758</v>
+      </c>
+      <c r="F1438">
+        <v>42</v>
+      </c>
+      <c r="G1438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>4</v>
+      </c>
+      <c r="B1439">
+        <v>11</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1439">
+        <v>179</v>
+      </c>
+      <c r="E1439" s="2">
+        <v>45758</v>
+      </c>
+      <c r="F1439">
+        <v>42</v>
+      </c>
+      <c r="G1439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>4</v>
+      </c>
+      <c r="B1440">
+        <v>11</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1440">
+        <v>79</v>
+      </c>
+      <c r="E1440" s="2">
+        <v>45758</v>
+      </c>
+      <c r="F1440">
+        <v>42</v>
+      </c>
+      <c r="G1440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>4</v>
+      </c>
+      <c r="B1441">
+        <v>12</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1441">
+        <v>115</v>
+      </c>
+      <c r="E1441" s="2">
+        <v>45759</v>
+      </c>
+      <c r="F1441">
+        <v>42</v>
+      </c>
+      <c r="G1441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>4</v>
+      </c>
+      <c r="B1442">
+        <v>12</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1442">
+        <v>194</v>
+      </c>
+      <c r="E1442" s="2">
+        <v>45759</v>
+      </c>
+      <c r="F1442">
+        <v>42</v>
+      </c>
+      <c r="G1442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>4</v>
+      </c>
+      <c r="B1443">
+        <v>12</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1443">
+        <v>146</v>
+      </c>
+      <c r="E1443" s="2">
+        <v>45759</v>
+      </c>
+      <c r="F1443">
+        <v>42</v>
+      </c>
+      <c r="G1443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>4</v>
+      </c>
+      <c r="B1444">
+        <v>13</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1444">
+        <v>193</v>
+      </c>
+      <c r="E1444" s="2">
+        <v>45760</v>
+      </c>
+      <c r="F1444">
+        <v>42</v>
+      </c>
+      <c r="G1444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>4</v>
+      </c>
+      <c r="B1445">
+        <v>13</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1445">
+        <v>184</v>
+      </c>
+      <c r="E1445" s="2">
+        <v>45760</v>
+      </c>
+      <c r="F1445">
+        <v>42</v>
+      </c>
+      <c r="G1445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>4</v>
+      </c>
+      <c r="B1446">
+        <v>13</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1446">
+        <v>203</v>
+      </c>
+      <c r="E1446" s="2">
+        <v>45760</v>
+      </c>
+      <c r="F1446">
+        <v>42</v>
+      </c>
+      <c r="G1446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>4</v>
+      </c>
+      <c r="B1447">
+        <v>14</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1447">
+        <v>167</v>
+      </c>
+      <c r="E1447" s="2">
+        <v>45761</v>
+      </c>
+      <c r="F1447">
+        <v>42</v>
+      </c>
+      <c r="G1447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>4</v>
+      </c>
+      <c r="B1448">
+        <v>14</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1448">
+        <v>163</v>
+      </c>
+      <c r="E1448" s="2">
+        <v>45761</v>
+      </c>
+      <c r="F1448">
+        <v>42</v>
+      </c>
+      <c r="G1448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>4</v>
+      </c>
+      <c r="B1449">
+        <v>14</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1449">
+        <v>116</v>
+      </c>
+      <c r="E1449" s="2">
+        <v>45761</v>
+      </c>
+      <c r="F1449">
+        <v>42</v>
+      </c>
+      <c r="G1449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>4</v>
+      </c>
+      <c r="B1450">
+        <v>15</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1450">
+        <v>173</v>
+      </c>
+      <c r="E1450" s="2">
+        <v>45762</v>
+      </c>
+      <c r="F1450">
+        <v>42</v>
+      </c>
+      <c r="G1450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>4</v>
+      </c>
+      <c r="B1451">
+        <v>15</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1451">
+        <v>203</v>
+      </c>
+      <c r="E1451" s="2">
+        <v>45762</v>
+      </c>
+      <c r="F1451">
+        <v>42</v>
+      </c>
+      <c r="G1451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>4</v>
+      </c>
+      <c r="B1452">
+        <v>15</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1452">
+        <v>168</v>
+      </c>
+      <c r="E1452" s="2">
+        <v>45762</v>
+      </c>
+      <c r="F1452">
+        <v>42</v>
+      </c>
+      <c r="G1452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>4</v>
+      </c>
+      <c r="B1453">
+        <v>16</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1453">
+        <v>206</v>
+      </c>
+      <c r="E1453" s="2">
+        <v>45763</v>
+      </c>
+      <c r="F1453">
+        <v>42</v>
+      </c>
+      <c r="G1453">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>4</v>
+      </c>
+      <c r="B1454">
+        <v>16</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1454">
+        <v>124</v>
+      </c>
+      <c r="E1454" s="2">
+        <v>45763</v>
+      </c>
+      <c r="F1454">
+        <v>42</v>
+      </c>
+      <c r="G1454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>4</v>
+      </c>
+      <c r="B1455">
+        <v>16</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1455">
+        <v>87</v>
+      </c>
+      <c r="E1455" s="2">
+        <v>45763</v>
+      </c>
+      <c r="F1455">
+        <v>42</v>
+      </c>
+      <c r="G1455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>4</v>
+      </c>
+      <c r="B1456">
+        <v>17</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1456">
+        <v>224</v>
+      </c>
+      <c r="E1456" s="2">
+        <v>45764</v>
+      </c>
+      <c r="F1456">
+        <v>42</v>
+      </c>
+      <c r="G1456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>4</v>
+      </c>
+      <c r="B1457">
+        <v>17</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1457">
+        <v>144</v>
+      </c>
+      <c r="E1457" s="2">
+        <v>45764</v>
+      </c>
+      <c r="F1457">
+        <v>42</v>
+      </c>
+      <c r="G1457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>4</v>
+      </c>
+      <c r="B1458">
+        <v>17</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1458">
+        <v>118</v>
+      </c>
+      <c r="E1458" s="2">
+        <v>45764</v>
+      </c>
+      <c r="F1458">
+        <v>42</v>
+      </c>
+      <c r="G1458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>4</v>
+      </c>
+      <c r="B1459">
+        <v>18</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1459">
+        <v>214</v>
+      </c>
+      <c r="E1459" s="2">
+        <v>45765</v>
+      </c>
+      <c r="F1459">
+        <v>42</v>
+      </c>
+      <c r="G1459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>4</v>
+      </c>
+      <c r="B1460">
+        <v>18</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1460">
+        <v>93</v>
+      </c>
+      <c r="E1460" s="2">
+        <v>45765</v>
+      </c>
+      <c r="F1460">
+        <v>42</v>
+      </c>
+      <c r="G1460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>4</v>
+      </c>
+      <c r="B1461">
+        <v>18</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1461">
+        <v>136</v>
+      </c>
+      <c r="E1461" s="2">
+        <v>45765</v>
+      </c>
+      <c r="F1461">
+        <v>42</v>
+      </c>
+      <c r="G1461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>4</v>
+      </c>
+      <c r="B1462">
+        <v>19</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1462">
+        <v>202</v>
+      </c>
+      <c r="E1462" s="2">
+        <v>45766</v>
+      </c>
+      <c r="F1462">
+        <v>42</v>
+      </c>
+      <c r="G1462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>4</v>
+      </c>
+      <c r="B1463">
+        <v>19</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1463">
+        <v>101</v>
+      </c>
+      <c r="E1463" s="2">
+        <v>45766</v>
+      </c>
+      <c r="F1463">
+        <v>42</v>
+      </c>
+      <c r="G1463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>4</v>
+      </c>
+      <c r="B1464">
+        <v>19</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1464">
+        <v>139</v>
+      </c>
+      <c r="E1464" s="2">
+        <v>45766</v>
+      </c>
+      <c r="F1464">
+        <v>42</v>
+      </c>
+      <c r="G1464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>4</v>
+      </c>
+      <c r="B1465">
+        <v>20</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1465">
+        <v>102</v>
+      </c>
+      <c r="E1465" s="2">
+        <v>45767</v>
+      </c>
+      <c r="F1465">
+        <v>42</v>
+      </c>
+      <c r="G1465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>4</v>
+      </c>
+      <c r="B1466">
+        <v>20</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1466">
+        <v>83</v>
+      </c>
+      <c r="E1466" s="2">
+        <v>45767</v>
+      </c>
+      <c r="F1466">
+        <v>42</v>
+      </c>
+      <c r="G1466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>4</v>
+      </c>
+      <c r="B1467">
+        <v>20</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1467">
+        <v>159</v>
+      </c>
+      <c r="E1467" s="2">
+        <v>45767</v>
+      </c>
+      <c r="F1467">
+        <v>42</v>
+      </c>
+      <c r="G1467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>4</v>
+      </c>
+      <c r="B1468">
+        <v>21</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1468">
+        <v>205</v>
+      </c>
+      <c r="E1468" s="2">
+        <v>45768</v>
+      </c>
+      <c r="F1468">
+        <v>42</v>
+      </c>
+      <c r="G1468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>4</v>
+      </c>
+      <c r="B1469">
+        <v>21</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1469">
+        <v>108</v>
+      </c>
+      <c r="E1469" s="2">
+        <v>45768</v>
+      </c>
+      <c r="F1469">
+        <v>42</v>
+      </c>
+      <c r="G1469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>4</v>
+      </c>
+      <c r="B1470">
+        <v>21</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1470">
+        <v>132</v>
+      </c>
+      <c r="E1470" s="2">
+        <v>45768</v>
+      </c>
+      <c r="F1470">
+        <v>42</v>
+      </c>
+      <c r="G1470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>4</v>
+      </c>
+      <c r="B1471">
+        <v>22</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1471">
+        <v>127</v>
+      </c>
+      <c r="E1471" s="2">
+        <v>45769</v>
+      </c>
+      <c r="F1471">
+        <v>42</v>
+      </c>
+      <c r="G1471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>4</v>
+      </c>
+      <c r="B1472">
+        <v>22</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1472">
+        <v>110</v>
+      </c>
+      <c r="E1472" s="2">
+        <v>45769</v>
+      </c>
+      <c r="F1472">
+        <v>42</v>
+      </c>
+      <c r="G1472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>4</v>
+      </c>
+      <c r="B1473">
+        <v>22</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1473">
+        <v>238</v>
+      </c>
+      <c r="E1473" s="2">
+        <v>45769</v>
+      </c>
+      <c r="F1473">
+        <v>42</v>
+      </c>
+      <c r="G1473">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>4</v>
+      </c>
+      <c r="B1474">
+        <v>23</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1474">
+        <v>196</v>
+      </c>
+      <c r="E1474" s="2">
+        <v>45770</v>
+      </c>
+      <c r="F1474">
+        <v>42</v>
+      </c>
+      <c r="G1474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>4</v>
+      </c>
+      <c r="B1475">
+        <v>23</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1475">
+        <v>156</v>
+      </c>
+      <c r="E1475" s="2">
+        <v>45770</v>
+      </c>
+      <c r="F1475">
+        <v>42</v>
+      </c>
+      <c r="G1475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>4</v>
+      </c>
+      <c r="B1476">
+        <v>23</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1476">
+        <v>217</v>
+      </c>
+      <c r="E1476" s="2">
+        <v>45770</v>
+      </c>
+      <c r="F1476">
+        <v>42</v>
+      </c>
+      <c r="G1476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>4</v>
+      </c>
+      <c r="B1477">
+        <v>24</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1477">
+        <v>172</v>
+      </c>
+      <c r="E1477" s="2">
+        <v>45771</v>
+      </c>
+      <c r="F1477">
+        <v>42</v>
+      </c>
+      <c r="G1477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>4</v>
+      </c>
+      <c r="B1478">
+        <v>24</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1478">
+        <v>91</v>
+      </c>
+      <c r="E1478" s="2">
+        <v>45771</v>
+      </c>
+      <c r="F1478">
+        <v>42</v>
+      </c>
+      <c r="G1478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>4</v>
+      </c>
+      <c r="B1479">
+        <v>24</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1479">
+        <v>170</v>
+      </c>
+      <c r="E1479" s="2">
+        <v>45771</v>
+      </c>
+      <c r="F1479">
+        <v>42</v>
+      </c>
+      <c r="G1479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>4</v>
+      </c>
+      <c r="B1480">
+        <v>25</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1480">
+        <v>175</v>
+      </c>
+      <c r="E1480" s="2">
+        <v>45772</v>
+      </c>
+      <c r="F1480">
+        <v>42</v>
+      </c>
+      <c r="G1480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>4</v>
+      </c>
+      <c r="B1481">
+        <v>25</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1481">
+        <v>224</v>
+      </c>
+      <c r="E1481" s="2">
+        <v>45772</v>
+      </c>
+      <c r="F1481">
+        <v>42</v>
+      </c>
+      <c r="G1481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>4</v>
+      </c>
+      <c r="B1482">
+        <v>25</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1482">
+        <v>171</v>
+      </c>
+      <c r="E1482" s="2">
+        <v>45772</v>
+      </c>
+      <c r="F1482">
+        <v>42</v>
+      </c>
+      <c r="G1482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>4</v>
+      </c>
+      <c r="B1483">
+        <v>26</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1483">
+        <v>85</v>
+      </c>
+      <c r="E1483" s="2">
+        <v>45773</v>
+      </c>
+      <c r="F1483">
+        <v>42</v>
+      </c>
+      <c r="G1483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>4</v>
+      </c>
+      <c r="B1484">
+        <v>26</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1484">
+        <v>128</v>
+      </c>
+      <c r="E1484" s="2">
+        <v>45773</v>
+      </c>
+      <c r="F1484">
+        <v>42</v>
+      </c>
+      <c r="G1484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>4</v>
+      </c>
+      <c r="B1485">
+        <v>26</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1485">
+        <v>195</v>
+      </c>
+      <c r="E1485" s="2">
+        <v>45773</v>
+      </c>
+      <c r="F1485">
+        <v>42</v>
+      </c>
+      <c r="G1485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>4</v>
+      </c>
+      <c r="B1486">
+        <v>27</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1486">
+        <v>101</v>
+      </c>
+      <c r="E1486" s="2">
+        <v>45774</v>
+      </c>
+      <c r="F1486">
+        <v>42</v>
+      </c>
+      <c r="G1486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>4</v>
+      </c>
+      <c r="B1487">
+        <v>27</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1487">
+        <v>130</v>
+      </c>
+      <c r="E1487" s="2">
+        <v>45774</v>
+      </c>
+      <c r="F1487">
+        <v>42</v>
+      </c>
+      <c r="G1487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>4</v>
+      </c>
+      <c r="B1488">
+        <v>27</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1488">
+        <v>83</v>
+      </c>
+      <c r="E1488" s="2">
+        <v>45774</v>
+      </c>
+      <c r="F1488">
+        <v>42</v>
+      </c>
+      <c r="G1488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>4</v>
+      </c>
+      <c r="B1489">
+        <v>28</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1489">
+        <v>239</v>
+      </c>
+      <c r="E1489" s="2">
+        <v>45775</v>
+      </c>
+      <c r="F1489">
+        <v>42</v>
+      </c>
+      <c r="G1489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>4</v>
+      </c>
+      <c r="B1490">
+        <v>28</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1490">
+        <v>243</v>
+      </c>
+      <c r="E1490" s="2">
+        <v>45775</v>
+      </c>
+      <c r="F1490">
+        <v>42</v>
+      </c>
+      <c r="G1490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1491">
+        <v>4</v>
+      </c>
+      <c r="B1491">
+        <v>28</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1491">
+        <v>148</v>
+      </c>
+      <c r="E1491" s="2">
+        <v>45775</v>
+      </c>
+      <c r="F1491">
+        <v>42</v>
+      </c>
+      <c r="G1491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1492">
+        <v>4</v>
+      </c>
+      <c r="B1492">
+        <v>29</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1492">
+        <v>230</v>
+      </c>
+      <c r="E1492" s="2">
+        <v>45776</v>
+      </c>
+      <c r="F1492">
+        <v>42</v>
+      </c>
+      <c r="G1492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1493">
+        <v>4</v>
+      </c>
+      <c r="B1493">
+        <v>29</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1493">
+        <v>210</v>
+      </c>
+      <c r="E1493" s="2">
+        <v>45776</v>
+      </c>
+      <c r="F1493">
+        <v>42</v>
+      </c>
+      <c r="G1493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1494">
+        <v>4</v>
+      </c>
+      <c r="B1494">
+        <v>29</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1494">
+        <v>138</v>
+      </c>
+      <c r="E1494" s="2">
+        <v>45776</v>
+      </c>
+      <c r="F1494">
+        <v>42</v>
+      </c>
+      <c r="G1494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1495">
+        <v>4</v>
+      </c>
+      <c r="B1495">
+        <v>30</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1495">
+        <v>193</v>
+      </c>
+      <c r="E1495" s="2">
+        <v>45777</v>
+      </c>
+      <c r="F1495">
+        <v>42</v>
+      </c>
+      <c r="G1495">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1496">
+        <v>4</v>
+      </c>
+      <c r="B1496">
+        <v>30</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1496">
+        <v>157</v>
+      </c>
+      <c r="E1496" s="2">
+        <v>45777</v>
+      </c>
+      <c r="F1496">
+        <v>42</v>
+      </c>
+      <c r="G1496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>4</v>
+      </c>
+      <c r="B1497">
+        <v>30</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1497">
+        <v>194</v>
+      </c>
+      <c r="E1497" s="2">
+        <v>45777</v>
+      </c>
+      <c r="F1497">
+        <v>42</v>
+      </c>
+      <c r="G1497">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>4</v>
+      </c>
+      <c r="B1498">
+        <v>31</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1498">
+        <v>228</v>
+      </c>
+      <c r="E1498" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1498">
+        <v>42</v>
+      </c>
+      <c r="G1498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1499">
+        <v>4</v>
+      </c>
+      <c r="B1499">
+        <v>31</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1499">
+        <v>232</v>
+      </c>
+      <c r="E1499" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1499">
+        <v>42</v>
+      </c>
+      <c r="G1499">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1500">
+        <v>4</v>
+      </c>
+      <c r="B1500">
+        <v>31</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1500">
+        <v>88</v>
+      </c>
+      <c r="E1500" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1500">
+        <v>42</v>
+      </c>
+      <c r="G1500">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF42A53-36CB-4DDA-B427-1D92949D86A9}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86C06C5-C1FA-443B-A2F3-9A94589B9DEA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="556">
   <si>
     <t>Mês</t>
   </si>
@@ -1698,18 +1698,6 @@
   </si>
   <si>
     <t>25/03/2025</t>
-  </si>
-  <si>
-    <t>26/03/2025</t>
-  </si>
-  <si>
-    <t>27/03/2025</t>
-  </si>
-  <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
-    <t>29/03/2025</t>
   </si>
   <si>
     <t>31/04/2025</t>
@@ -2086,11 +2074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1500"/>
+  <dimension ref="A1:G1490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1398" sqref="A1398:G1500"/>
+      <pane ySplit="1" topLeftCell="A1462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1397" sqref="A1397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34231,42 +34219,42 @@
     </row>
     <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1398">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1398">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1398" t="s">
         <v>134</v>
       </c>
       <c r="D1398">
-        <v>254</v>
-      </c>
-      <c r="E1398" t="s">
-        <v>555</v>
+        <v>167</v>
+      </c>
+      <c r="E1398" s="2">
+        <v>45748</v>
       </c>
       <c r="F1398">
         <v>42</v>
       </c>
       <c r="G1398">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1399">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1399">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1399" t="s">
         <v>135</v>
       </c>
       <c r="D1399">
-        <v>96</v>
-      </c>
-      <c r="E1399" t="s">
-        <v>555</v>
+        <v>71</v>
+      </c>
+      <c r="E1399" s="2">
+        <v>45748</v>
       </c>
       <c r="F1399">
         <v>42</v>
@@ -34277,186 +34265,186 @@
     </row>
     <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1400">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1400">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1400" t="s">
         <v>72</v>
       </c>
       <c r="D1400">
-        <v>63</v>
-      </c>
-      <c r="E1400" t="s">
-        <v>555</v>
+        <v>219</v>
+      </c>
+      <c r="E1400" s="2">
+        <v>45748</v>
       </c>
       <c r="F1400">
         <v>42</v>
       </c>
       <c r="G1400">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1401">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1401">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C1401" t="s">
         <v>134</v>
       </c>
       <c r="D1401">
-        <v>179</v>
-      </c>
-      <c r="E1401" t="s">
-        <v>556</v>
+        <v>97</v>
+      </c>
+      <c r="E1401" s="2">
+        <v>45749</v>
       </c>
       <c r="F1401">
         <v>42</v>
       </c>
       <c r="G1401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1402">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1402">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C1402" t="s">
         <v>135</v>
       </c>
       <c r="D1402">
-        <v>93</v>
-      </c>
-      <c r="E1402" t="s">
-        <v>556</v>
+        <v>180</v>
+      </c>
+      <c r="E1402" s="2">
+        <v>45749</v>
       </c>
       <c r="F1402">
         <v>42</v>
       </c>
       <c r="G1402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1403">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1403">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C1403" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D1403">
-        <v>278</v>
-      </c>
-      <c r="E1403" t="s">
-        <v>557</v>
+        <v>164</v>
+      </c>
+      <c r="E1403" s="2">
+        <v>45749</v>
       </c>
       <c r="F1403">
         <v>42</v>
       </c>
       <c r="G1403">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1404">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1404">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1404" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1404">
-        <v>139</v>
-      </c>
-      <c r="E1404" t="s">
-        <v>557</v>
+        <v>215</v>
+      </c>
+      <c r="E1404" s="2">
+        <v>45750</v>
       </c>
       <c r="F1404">
         <v>42</v>
       </c>
       <c r="G1404">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1405">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1405">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C1405" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1405">
-        <v>204</v>
-      </c>
-      <c r="E1405" t="s">
-        <v>558</v>
+        <v>80</v>
+      </c>
+      <c r="E1405" s="2">
+        <v>45750</v>
       </c>
       <c r="F1405">
         <v>42</v>
       </c>
       <c r="G1405">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1406">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1406">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C1406" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1406">
-        <v>160</v>
-      </c>
-      <c r="E1406" t="s">
-        <v>558</v>
+        <v>213</v>
+      </c>
+      <c r="E1406" s="2">
+        <v>45750</v>
       </c>
       <c r="F1406">
         <v>42</v>
       </c>
       <c r="G1406">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1407">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1407">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C1407" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1407">
-        <v>201</v>
-      </c>
-      <c r="E1407" t="s">
-        <v>558</v>
+        <v>244</v>
+      </c>
+      <c r="E1407" s="2">
+        <v>45751</v>
       </c>
       <c r="F1407">
         <v>42</v>
       </c>
       <c r="G1407">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
@@ -34464,22 +34452,22 @@
         <v>4</v>
       </c>
       <c r="B1408">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1408" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1408">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="E1408" s="2">
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="F1408">
         <v>42</v>
       </c>
       <c r="G1408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
@@ -34487,22 +34475,22 @@
         <v>4</v>
       </c>
       <c r="B1409">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1409" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1409">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="E1409" s="2">
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="F1409">
         <v>42</v>
       </c>
       <c r="G1409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
@@ -34510,16 +34498,16 @@
         <v>4</v>
       </c>
       <c r="B1410">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1410" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1410">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E1410" s="2">
-        <v>45748</v>
+        <v>45752</v>
       </c>
       <c r="F1410">
         <v>42</v>
@@ -34533,22 +34521,22 @@
         <v>4</v>
       </c>
       <c r="B1411">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1411" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1411">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="E1411" s="2">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="F1411">
         <v>42</v>
       </c>
       <c r="G1411">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
@@ -34556,16 +34544,16 @@
         <v>4</v>
       </c>
       <c r="B1412">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1412" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1412">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E1412" s="2">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="F1412">
         <v>42</v>
@@ -34579,22 +34567,22 @@
         <v>4</v>
       </c>
       <c r="B1413">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1413" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1413">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="E1413" s="2">
-        <v>45749</v>
+        <v>45753</v>
       </c>
       <c r="F1413">
         <v>42</v>
       </c>
       <c r="G1413">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
@@ -34602,22 +34590,22 @@
         <v>4</v>
       </c>
       <c r="B1414">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1414" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1414">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="E1414" s="2">
-        <v>45750</v>
+        <v>45753</v>
       </c>
       <c r="F1414">
         <v>42</v>
       </c>
       <c r="G1414">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
@@ -34625,22 +34613,22 @@
         <v>4</v>
       </c>
       <c r="B1415">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1415" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1415">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E1415" s="2">
-        <v>45750</v>
+        <v>45753</v>
       </c>
       <c r="F1415">
         <v>42</v>
       </c>
       <c r="G1415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
@@ -34648,22 +34636,22 @@
         <v>4</v>
       </c>
       <c r="B1416">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1416" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1416">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="E1416" s="2">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="F1416">
         <v>42</v>
       </c>
       <c r="G1416">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
@@ -34671,22 +34659,22 @@
         <v>4</v>
       </c>
       <c r="B1417">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1417" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1417">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="E1417" s="2">
-        <v>45751</v>
+        <v>45754</v>
       </c>
       <c r="F1417">
         <v>42</v>
       </c>
       <c r="G1417">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
@@ -34694,16 +34682,16 @@
         <v>4</v>
       </c>
       <c r="B1418">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1418" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1418">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1418" s="2">
-        <v>45751</v>
+        <v>45754</v>
       </c>
       <c r="F1418">
         <v>42</v>
@@ -34717,22 +34705,22 @@
         <v>4</v>
       </c>
       <c r="B1419">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1419" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1419">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="E1419" s="2">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="F1419">
         <v>42</v>
       </c>
       <c r="G1419">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
@@ -34740,22 +34728,22 @@
         <v>4</v>
       </c>
       <c r="B1420">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1420" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1420">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="E1420" s="2">
-        <v>45752</v>
+        <v>45755</v>
       </c>
       <c r="F1420">
         <v>42</v>
       </c>
       <c r="G1420">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
@@ -34763,22 +34751,22 @@
         <v>4</v>
       </c>
       <c r="B1421">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1421" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1421">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="E1421" s="2">
-        <v>45752</v>
+        <v>45755</v>
       </c>
       <c r="F1421">
         <v>42</v>
       </c>
       <c r="G1421">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
@@ -34786,22 +34774,22 @@
         <v>4</v>
       </c>
       <c r="B1422">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1422" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1422">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E1422" s="2">
-        <v>45752</v>
+        <v>45756</v>
       </c>
       <c r="F1422">
         <v>42</v>
       </c>
       <c r="G1422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
@@ -34809,22 +34797,22 @@
         <v>4</v>
       </c>
       <c r="B1423">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1423" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1423">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E1423" s="2">
-        <v>45753</v>
+        <v>45756</v>
       </c>
       <c r="F1423">
         <v>42</v>
       </c>
       <c r="G1423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
@@ -34832,22 +34820,22 @@
         <v>4</v>
       </c>
       <c r="B1424">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1424" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1424">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="E1424" s="2">
-        <v>45753</v>
+        <v>45756</v>
       </c>
       <c r="F1424">
         <v>42</v>
       </c>
       <c r="G1424">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
@@ -34855,22 +34843,22 @@
         <v>4</v>
       </c>
       <c r="B1425">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1425" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1425">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="E1425" s="2">
-        <v>45753</v>
+        <v>45757</v>
       </c>
       <c r="F1425">
         <v>42</v>
       </c>
       <c r="G1425">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
@@ -34878,22 +34866,22 @@
         <v>4</v>
       </c>
       <c r="B1426">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1426" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1426">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="E1426" s="2">
-        <v>45754</v>
+        <v>45757</v>
       </c>
       <c r="F1426">
         <v>42</v>
       </c>
       <c r="G1426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
@@ -34901,22 +34889,22 @@
         <v>4</v>
       </c>
       <c r="B1427">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1427" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1427">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="E1427" s="2">
-        <v>45754</v>
+        <v>45757</v>
       </c>
       <c r="F1427">
         <v>42</v>
       </c>
       <c r="G1427">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
@@ -34924,22 +34912,22 @@
         <v>4</v>
       </c>
       <c r="B1428">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1428" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1428">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="E1428" s="2">
-        <v>45754</v>
+        <v>45758</v>
       </c>
       <c r="F1428">
         <v>42</v>
       </c>
       <c r="G1428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
@@ -34947,22 +34935,22 @@
         <v>4</v>
       </c>
       <c r="B1429">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1429" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1429">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="E1429" s="2">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="F1429">
         <v>42</v>
       </c>
       <c r="G1429">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
@@ -34970,22 +34958,22 @@
         <v>4</v>
       </c>
       <c r="B1430">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1430" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1430">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="E1430" s="2">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="F1430">
         <v>42</v>
       </c>
       <c r="G1430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
@@ -34993,16 +34981,16 @@
         <v>4</v>
       </c>
       <c r="B1431">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1431" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1431">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E1431" s="2">
-        <v>45755</v>
+        <v>45759</v>
       </c>
       <c r="F1431">
         <v>42</v>
@@ -35016,16 +35004,16 @@
         <v>4</v>
       </c>
       <c r="B1432">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1432" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1432">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E1432" s="2">
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="F1432">
         <v>42</v>
@@ -35039,22 +35027,22 @@
         <v>4</v>
       </c>
       <c r="B1433">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1433" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1433">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="E1433" s="2">
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="F1433">
         <v>42</v>
       </c>
       <c r="G1433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
@@ -35062,22 +35050,22 @@
         <v>4</v>
       </c>
       <c r="B1434">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1434" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1434">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="E1434" s="2">
-        <v>45756</v>
+        <v>45760</v>
       </c>
       <c r="F1434">
         <v>42</v>
       </c>
       <c r="G1434">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
@@ -35085,22 +35073,22 @@
         <v>4</v>
       </c>
       <c r="B1435">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1435" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1435">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="E1435" s="2">
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="F1435">
         <v>42</v>
       </c>
       <c r="G1435">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
@@ -35108,22 +35096,22 @@
         <v>4</v>
       </c>
       <c r="B1436">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1436" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1436">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="E1436" s="2">
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="F1436">
         <v>42</v>
       </c>
       <c r="G1436">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
@@ -35131,22 +35119,22 @@
         <v>4</v>
       </c>
       <c r="B1437">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1437" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1437">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E1437" s="2">
-        <v>45757</v>
+        <v>45761</v>
       </c>
       <c r="F1437">
         <v>42</v>
       </c>
       <c r="G1437">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
@@ -35154,16 +35142,16 @@
         <v>4</v>
       </c>
       <c r="B1438">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1438" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1438">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E1438" s="2">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="F1438">
         <v>42</v>
@@ -35177,22 +35165,22 @@
         <v>4</v>
       </c>
       <c r="B1439">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1439" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1439">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="E1439" s="2">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="F1439">
         <v>42</v>
       </c>
       <c r="G1439">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
@@ -35200,22 +35188,22 @@
         <v>4</v>
       </c>
       <c r="B1440">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1440" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1440">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="E1440" s="2">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="F1440">
         <v>42</v>
       </c>
       <c r="G1440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
@@ -35223,22 +35211,22 @@
         <v>4</v>
       </c>
       <c r="B1441">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1441" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1441">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="E1441" s="2">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="F1441">
         <v>42</v>
       </c>
       <c r="G1441">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
@@ -35246,22 +35234,22 @@
         <v>4</v>
       </c>
       <c r="B1442">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1442" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1442">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E1442" s="2">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="F1442">
         <v>42</v>
       </c>
       <c r="G1442">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
@@ -35269,22 +35257,22 @@
         <v>4</v>
       </c>
       <c r="B1443">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1443" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1443">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="E1443" s="2">
-        <v>45759</v>
+        <v>45763</v>
       </c>
       <c r="F1443">
         <v>42</v>
       </c>
       <c r="G1443">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
@@ -35292,22 +35280,22 @@
         <v>4</v>
       </c>
       <c r="B1444">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1444" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1444">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="E1444" s="2">
-        <v>45760</v>
+        <v>45763</v>
       </c>
       <c r="F1444">
         <v>42</v>
       </c>
       <c r="G1444">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
@@ -35315,22 +35303,22 @@
         <v>4</v>
       </c>
       <c r="B1445">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1445" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1445">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="E1445" s="2">
-        <v>45760</v>
+        <v>45763</v>
       </c>
       <c r="F1445">
         <v>42</v>
       </c>
       <c r="G1445">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
@@ -35338,22 +35326,22 @@
         <v>4</v>
       </c>
       <c r="B1446">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1446" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1446">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E1446" s="2">
-        <v>45760</v>
+        <v>45764</v>
       </c>
       <c r="F1446">
         <v>42</v>
       </c>
       <c r="G1446">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
@@ -35361,16 +35349,16 @@
         <v>4</v>
       </c>
       <c r="B1447">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1447" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1447">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E1447" s="2">
-        <v>45761</v>
+        <v>45764</v>
       </c>
       <c r="F1447">
         <v>42</v>
@@ -35384,22 +35372,22 @@
         <v>4</v>
       </c>
       <c r="B1448">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1448" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1448">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E1448" s="2">
-        <v>45761</v>
+        <v>45764</v>
       </c>
       <c r="F1448">
         <v>42</v>
       </c>
       <c r="G1448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
@@ -35407,22 +35395,22 @@
         <v>4</v>
       </c>
       <c r="B1449">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1449" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1449">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="E1449" s="2">
-        <v>45761</v>
+        <v>45765</v>
       </c>
       <c r="F1449">
         <v>42</v>
       </c>
       <c r="G1449">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
@@ -35430,22 +35418,22 @@
         <v>4</v>
       </c>
       <c r="B1450">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1450" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1450">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="E1450" s="2">
-        <v>45762</v>
+        <v>45765</v>
       </c>
       <c r="F1450">
         <v>42</v>
       </c>
       <c r="G1450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
@@ -35453,22 +35441,22 @@
         <v>4</v>
       </c>
       <c r="B1451">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1451" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1451">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="E1451" s="2">
-        <v>45762</v>
+        <v>45765</v>
       </c>
       <c r="F1451">
         <v>42</v>
       </c>
       <c r="G1451">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
@@ -35476,22 +35464,22 @@
         <v>4</v>
       </c>
       <c r="B1452">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1452" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1452">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E1452" s="2">
-        <v>45762</v>
+        <v>45766</v>
       </c>
       <c r="F1452">
         <v>42</v>
       </c>
       <c r="G1452">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
@@ -35499,22 +35487,22 @@
         <v>4</v>
       </c>
       <c r="B1453">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1453" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1453">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="E1453" s="2">
-        <v>45763</v>
+        <v>45766</v>
       </c>
       <c r="F1453">
         <v>42</v>
       </c>
       <c r="G1453">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
@@ -35522,16 +35510,16 @@
         <v>4</v>
       </c>
       <c r="B1454">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1454" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1454">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E1454" s="2">
-        <v>45763</v>
+        <v>45766</v>
       </c>
       <c r="F1454">
         <v>42</v>
@@ -35545,22 +35533,22 @@
         <v>4</v>
       </c>
       <c r="B1455">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1455" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1455">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E1455" s="2">
-        <v>45763</v>
+        <v>45767</v>
       </c>
       <c r="F1455">
         <v>42</v>
       </c>
       <c r="G1455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
@@ -35568,22 +35556,22 @@
         <v>4</v>
       </c>
       <c r="B1456">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1456" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1456">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="E1456" s="2">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="F1456">
         <v>42</v>
       </c>
       <c r="G1456">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
@@ -35591,16 +35579,16 @@
         <v>4</v>
       </c>
       <c r="B1457">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1457" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1457">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E1457" s="2">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="F1457">
         <v>42</v>
@@ -35614,22 +35602,22 @@
         <v>4</v>
       </c>
       <c r="B1458">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1458" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1458">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="E1458" s="2">
-        <v>45764</v>
+        <v>45768</v>
       </c>
       <c r="F1458">
         <v>42</v>
       </c>
       <c r="G1458">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
@@ -35637,22 +35625,22 @@
         <v>4</v>
       </c>
       <c r="B1459">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1459" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1459">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="E1459" s="2">
-        <v>45765</v>
+        <v>45768</v>
       </c>
       <c r="F1459">
         <v>42</v>
       </c>
       <c r="G1459">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
@@ -35660,22 +35648,22 @@
         <v>4</v>
       </c>
       <c r="B1460">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1460" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1460">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="E1460" s="2">
-        <v>45765</v>
+        <v>45768</v>
       </c>
       <c r="F1460">
         <v>42</v>
       </c>
       <c r="G1460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
@@ -35683,16 +35671,16 @@
         <v>4</v>
       </c>
       <c r="B1461">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1461" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1461">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E1461" s="2">
-        <v>45765</v>
+        <v>45769</v>
       </c>
       <c r="F1461">
         <v>42</v>
@@ -35706,22 +35694,22 @@
         <v>4</v>
       </c>
       <c r="B1462">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1462" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1462">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="E1462" s="2">
-        <v>45766</v>
+        <v>45769</v>
       </c>
       <c r="F1462">
         <v>42</v>
       </c>
       <c r="G1462">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
@@ -35729,22 +35717,22 @@
         <v>4</v>
       </c>
       <c r="B1463">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1463" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1463">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="E1463" s="2">
-        <v>45766</v>
+        <v>45769</v>
       </c>
       <c r="F1463">
         <v>42</v>
       </c>
       <c r="G1463">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
@@ -35752,22 +35740,22 @@
         <v>4</v>
       </c>
       <c r="B1464">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C1464" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1464">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="E1464" s="2">
-        <v>45766</v>
+        <v>45770</v>
       </c>
       <c r="F1464">
         <v>42</v>
       </c>
       <c r="G1464">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
@@ -35775,22 +35763,22 @@
         <v>4</v>
       </c>
       <c r="B1465">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1465" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1465">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="E1465" s="2">
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="F1465">
         <v>42</v>
       </c>
       <c r="G1465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
@@ -35798,22 +35786,22 @@
         <v>4</v>
       </c>
       <c r="B1466">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1466" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1466">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="E1466" s="2">
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="F1466">
         <v>42</v>
       </c>
       <c r="G1466">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
@@ -35821,16 +35809,16 @@
         <v>4</v>
       </c>
       <c r="B1467">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1467" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1467">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E1467" s="2">
-        <v>45767</v>
+        <v>45771</v>
       </c>
       <c r="F1467">
         <v>42</v>
@@ -35844,22 +35832,22 @@
         <v>4</v>
       </c>
       <c r="B1468">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1468" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1468">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="E1468" s="2">
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="F1468">
         <v>42</v>
       </c>
       <c r="G1468">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
@@ -35867,22 +35855,22 @@
         <v>4</v>
       </c>
       <c r="B1469">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1469" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1469">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="E1469" s="2">
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="F1469">
         <v>42</v>
       </c>
       <c r="G1469">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
@@ -35890,22 +35878,22 @@
         <v>4</v>
       </c>
       <c r="B1470">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1470" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1470">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="E1470" s="2">
-        <v>45768</v>
+        <v>45772</v>
       </c>
       <c r="F1470">
         <v>42</v>
       </c>
       <c r="G1470">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
@@ -35913,22 +35901,22 @@
         <v>4</v>
       </c>
       <c r="B1471">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1471" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1471">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="E1471" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="F1471">
         <v>42</v>
       </c>
       <c r="G1471">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
@@ -35936,22 +35924,22 @@
         <v>4</v>
       </c>
       <c r="B1472">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1472" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1472">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="E1472" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="F1472">
         <v>42</v>
       </c>
       <c r="G1472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
@@ -35959,22 +35947,22 @@
         <v>4</v>
       </c>
       <c r="B1473">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1473" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1473">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="E1473" s="2">
-        <v>45769</v>
+        <v>45773</v>
       </c>
       <c r="F1473">
         <v>42</v>
       </c>
       <c r="G1473">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
@@ -35982,22 +35970,22 @@
         <v>4</v>
       </c>
       <c r="B1474">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1474" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1474">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="E1474" s="2">
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="F1474">
         <v>42</v>
       </c>
       <c r="G1474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
@@ -36005,22 +35993,22 @@
         <v>4</v>
       </c>
       <c r="B1475">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1475" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1475">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="E1475" s="2">
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="F1475">
         <v>42</v>
       </c>
       <c r="G1475">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
@@ -36028,22 +36016,22 @@
         <v>4</v>
       </c>
       <c r="B1476">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1476" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1476">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="E1476" s="2">
-        <v>45770</v>
+        <v>45774</v>
       </c>
       <c r="F1476">
         <v>42</v>
       </c>
       <c r="G1476">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
@@ -36051,22 +36039,22 @@
         <v>4</v>
       </c>
       <c r="B1477">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1477" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1477">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="E1477" s="2">
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="F1477">
         <v>42</v>
       </c>
       <c r="G1477">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
@@ -36074,16 +36062,16 @@
         <v>4</v>
       </c>
       <c r="B1478">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1478" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1478">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E1478" s="2">
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="F1478">
         <v>42</v>
@@ -36097,22 +36085,22 @@
         <v>4</v>
       </c>
       <c r="B1479">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1479" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1479">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="E1479" s="2">
-        <v>45771</v>
+        <v>45775</v>
       </c>
       <c r="F1479">
         <v>42</v>
       </c>
       <c r="G1479">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
@@ -36120,22 +36108,22 @@
         <v>4</v>
       </c>
       <c r="B1480">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1480" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1480">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="E1480" s="2">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="F1480">
         <v>42</v>
       </c>
       <c r="G1480">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
@@ -36143,22 +36131,22 @@
         <v>4</v>
       </c>
       <c r="B1481">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1481" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1481">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="E1481" s="2">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="F1481">
         <v>42</v>
       </c>
       <c r="G1481">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
@@ -36166,22 +36154,22 @@
         <v>4</v>
       </c>
       <c r="B1482">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1482" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1482">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="E1482" s="2">
-        <v>45772</v>
+        <v>45776</v>
       </c>
       <c r="F1482">
         <v>42</v>
       </c>
       <c r="G1482">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
@@ -36189,22 +36177,22 @@
         <v>4</v>
       </c>
       <c r="B1483">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1483" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1483">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="E1483" s="2">
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="F1483">
         <v>42</v>
       </c>
       <c r="G1483">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
@@ -36212,16 +36200,16 @@
         <v>4</v>
       </c>
       <c r="B1484">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1484" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1484">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E1484" s="2">
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="F1484">
         <v>42</v>
@@ -36235,16 +36223,16 @@
         <v>4</v>
       </c>
       <c r="B1485">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1485" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1485">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E1485" s="2">
-        <v>45773</v>
+        <v>45777</v>
       </c>
       <c r="F1485">
         <v>42</v>
@@ -36258,22 +36246,22 @@
         <v>4</v>
       </c>
       <c r="B1486">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1486" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1486">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E1486" s="2">
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="F1486">
         <v>42</v>
       </c>
       <c r="G1486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
@@ -36281,22 +36269,22 @@
         <v>4</v>
       </c>
       <c r="B1487">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1487" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1487">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="E1487" s="2">
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="F1487">
         <v>42</v>
       </c>
       <c r="G1487">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
@@ -36304,22 +36292,22 @@
         <v>4</v>
       </c>
       <c r="B1488">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1488" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D1488">
-        <v>83</v>
-      </c>
-      <c r="E1488" s="2">
-        <v>45774</v>
+        <v>228</v>
+      </c>
+      <c r="E1488" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="F1488">
         <v>42</v>
       </c>
       <c r="G1488">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
@@ -36327,16 +36315,16 @@
         <v>4</v>
       </c>
       <c r="B1489">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1489" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1489">
-        <v>239</v>
-      </c>
-      <c r="E1489" s="2">
-        <v>45775</v>
+        <v>232</v>
+      </c>
+      <c r="E1489" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="F1489">
         <v>42</v>
@@ -36350,251 +36338,21 @@
         <v>4</v>
       </c>
       <c r="B1490">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1490" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="D1490">
-        <v>243</v>
-      </c>
-      <c r="E1490" s="2">
-        <v>45775</v>
+        <v>88</v>
+      </c>
+      <c r="E1490" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="F1490">
         <v>42</v>
       </c>
       <c r="G1490">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1491">
-        <v>4</v>
-      </c>
-      <c r="B1491">
-        <v>28</v>
-      </c>
-      <c r="C1491" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1491">
-        <v>148</v>
-      </c>
-      <c r="E1491" s="2">
-        <v>45775</v>
-      </c>
-      <c r="F1491">
-        <v>42</v>
-      </c>
-      <c r="G1491">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1492">
-        <v>4</v>
-      </c>
-      <c r="B1492">
-        <v>29</v>
-      </c>
-      <c r="C1492" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1492">
-        <v>230</v>
-      </c>
-      <c r="E1492" s="2">
-        <v>45776</v>
-      </c>
-      <c r="F1492">
-        <v>42</v>
-      </c>
-      <c r="G1492">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1493">
-        <v>4</v>
-      </c>
-      <c r="B1493">
-        <v>29</v>
-      </c>
-      <c r="C1493" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1493">
-        <v>210</v>
-      </c>
-      <c r="E1493" s="2">
-        <v>45776</v>
-      </c>
-      <c r="F1493">
-        <v>42</v>
-      </c>
-      <c r="G1493">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1494">
-        <v>4</v>
-      </c>
-      <c r="B1494">
-        <v>29</v>
-      </c>
-      <c r="C1494" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1494">
-        <v>138</v>
-      </c>
-      <c r="E1494" s="2">
-        <v>45776</v>
-      </c>
-      <c r="F1494">
-        <v>42</v>
-      </c>
-      <c r="G1494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1495">
-        <v>4</v>
-      </c>
-      <c r="B1495">
-        <v>30</v>
-      </c>
-      <c r="C1495" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1495">
-        <v>193</v>
-      </c>
-      <c r="E1495" s="2">
-        <v>45777</v>
-      </c>
-      <c r="F1495">
-        <v>42</v>
-      </c>
-      <c r="G1495">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1496">
-        <v>4</v>
-      </c>
-      <c r="B1496">
-        <v>30</v>
-      </c>
-      <c r="C1496" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1496">
-        <v>157</v>
-      </c>
-      <c r="E1496" s="2">
-        <v>45777</v>
-      </c>
-      <c r="F1496">
-        <v>42</v>
-      </c>
-      <c r="G1496">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1497">
-        <v>4</v>
-      </c>
-      <c r="B1497">
-        <v>30</v>
-      </c>
-      <c r="C1497" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1497">
-        <v>194</v>
-      </c>
-      <c r="E1497" s="2">
-        <v>45777</v>
-      </c>
-      <c r="F1497">
-        <v>42</v>
-      </c>
-      <c r="G1497">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1498">
-        <v>4</v>
-      </c>
-      <c r="B1498">
-        <v>31</v>
-      </c>
-      <c r="C1498" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1498">
-        <v>228</v>
-      </c>
-      <c r="E1498" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1498">
-        <v>42</v>
-      </c>
-      <c r="G1498">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1499">
-        <v>4</v>
-      </c>
-      <c r="B1499">
-        <v>31</v>
-      </c>
-      <c r="C1499" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1499">
-        <v>232</v>
-      </c>
-      <c r="E1499" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1499">
-        <v>42</v>
-      </c>
-      <c r="G1499">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1500">
-        <v>4</v>
-      </c>
-      <c r="B1500">
-        <v>31</v>
-      </c>
-      <c r="C1500" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1500">
-        <v>88</v>
-      </c>
-      <c r="E1500" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1500">
-        <v>42</v>
-      </c>
-      <c r="G1500">
         <v>0</v>
       </c>
     </row>

--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86C06C5-C1FA-443B-A2F3-9A94589B9DEA}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691190CA-593D-43F6-8BE4-4A29D097382C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="586">
   <si>
     <t>Mês</t>
   </si>
@@ -1701,6 +1701,96 @@
   </si>
   <si>
     <t>31/04/2025</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>05/04/2025</t>
+  </si>
+  <si>
+    <t>06/04/2025</t>
+  </si>
+  <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>12/04/2025</t>
+  </si>
+  <si>
+    <t>13/04/2025</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>18/04/2025</t>
+  </si>
+  <si>
+    <t>19/04/2025</t>
+  </si>
+  <si>
+    <t>20/04/2025</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>26/04/2025</t>
+  </si>
+  <si>
+    <t>27/04/2025</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
   </si>
 </sst>
 </file>
@@ -1759,15 +1849,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2077,8 +2164,8 @@
   <dimension ref="A1:G1490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1397" sqref="A1397"/>
+      <pane ySplit="1" topLeftCell="A1407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1425" sqref="E1425:E1490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34230,8 +34317,8 @@
       <c r="D1398">
         <v>167</v>
       </c>
-      <c r="E1398" s="2">
-        <v>45748</v>
+      <c r="E1398" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="F1398">
         <v>42</v>
@@ -34253,8 +34340,8 @@
       <c r="D1399">
         <v>71</v>
       </c>
-      <c r="E1399" s="2">
-        <v>45748</v>
+      <c r="E1399" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="F1399">
         <v>42</v>
@@ -34276,8 +34363,8 @@
       <c r="D1400">
         <v>219</v>
       </c>
-      <c r="E1400" s="2">
-        <v>45748</v>
+      <c r="E1400" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="F1400">
         <v>42</v>
@@ -34299,8 +34386,8 @@
       <c r="D1401">
         <v>97</v>
       </c>
-      <c r="E1401" s="2">
-        <v>45749</v>
+      <c r="E1401" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F1401">
         <v>42</v>
@@ -34322,8 +34409,8 @@
       <c r="D1402">
         <v>180</v>
       </c>
-      <c r="E1402" s="2">
-        <v>45749</v>
+      <c r="E1402" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F1402">
         <v>42</v>
@@ -34345,8 +34432,8 @@
       <c r="D1403">
         <v>164</v>
       </c>
-      <c r="E1403" s="2">
-        <v>45749</v>
+      <c r="E1403" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F1403">
         <v>42</v>
@@ -34368,8 +34455,8 @@
       <c r="D1404">
         <v>215</v>
       </c>
-      <c r="E1404" s="2">
-        <v>45750</v>
+      <c r="E1404" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="F1404">
         <v>42</v>
@@ -34391,8 +34478,8 @@
       <c r="D1405">
         <v>80</v>
       </c>
-      <c r="E1405" s="2">
-        <v>45750</v>
+      <c r="E1405" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="F1405">
         <v>42</v>
@@ -34414,8 +34501,8 @@
       <c r="D1406">
         <v>213</v>
       </c>
-      <c r="E1406" s="2">
-        <v>45750</v>
+      <c r="E1406" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="F1406">
         <v>42</v>
@@ -34437,8 +34524,8 @@
       <c r="D1407">
         <v>244</v>
       </c>
-      <c r="E1407" s="2">
-        <v>45751</v>
+      <c r="E1407" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="F1407">
         <v>42</v>
@@ -34460,8 +34547,8 @@
       <c r="D1408">
         <v>104</v>
       </c>
-      <c r="E1408" s="2">
-        <v>45751</v>
+      <c r="E1408" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="F1408">
         <v>42</v>
@@ -34483,8 +34570,8 @@
       <c r="D1409">
         <v>139</v>
       </c>
-      <c r="E1409" s="2">
-        <v>45751</v>
+      <c r="E1409" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="F1409">
         <v>42</v>
@@ -34506,8 +34593,8 @@
       <c r="D1410">
         <v>206</v>
       </c>
-      <c r="E1410" s="2">
-        <v>45752</v>
+      <c r="E1410" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="F1410">
         <v>42</v>
@@ -34529,8 +34616,8 @@
       <c r="D1411">
         <v>237</v>
       </c>
-      <c r="E1411" s="2">
-        <v>45752</v>
+      <c r="E1411" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="F1411">
         <v>42</v>
@@ -34552,8 +34639,8 @@
       <c r="D1412">
         <v>172</v>
       </c>
-      <c r="E1412" s="2">
-        <v>45752</v>
+      <c r="E1412" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="F1412">
         <v>42</v>
@@ -34575,8 +34662,8 @@
       <c r="D1413">
         <v>129</v>
       </c>
-      <c r="E1413" s="2">
-        <v>45753</v>
+      <c r="E1413" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F1413">
         <v>42</v>
@@ -34598,8 +34685,8 @@
       <c r="D1414">
         <v>178</v>
       </c>
-      <c r="E1414" s="2">
-        <v>45753</v>
+      <c r="E1414" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F1414">
         <v>42</v>
@@ -34621,8 +34708,8 @@
       <c r="D1415">
         <v>149</v>
       </c>
-      <c r="E1415" s="2">
-        <v>45753</v>
+      <c r="E1415" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F1415">
         <v>42</v>
@@ -34644,8 +34731,8 @@
       <c r="D1416">
         <v>104</v>
       </c>
-      <c r="E1416" s="2">
-        <v>45754</v>
+      <c r="E1416" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="F1416">
         <v>42</v>
@@ -34667,8 +34754,8 @@
       <c r="D1417">
         <v>136</v>
       </c>
-      <c r="E1417" s="2">
-        <v>45754</v>
+      <c r="E1417" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="F1417">
         <v>42</v>
@@ -34690,8 +34777,8 @@
       <c r="D1418">
         <v>101</v>
       </c>
-      <c r="E1418" s="2">
-        <v>45754</v>
+      <c r="E1418" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="F1418">
         <v>42</v>
@@ -34713,8 +34800,8 @@
       <c r="D1419">
         <v>235</v>
       </c>
-      <c r="E1419" s="2">
-        <v>45755</v>
+      <c r="E1419" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="F1419">
         <v>42</v>
@@ -34736,8 +34823,8 @@
       <c r="D1420">
         <v>171</v>
       </c>
-      <c r="E1420" s="2">
-        <v>45755</v>
+      <c r="E1420" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="F1420">
         <v>42</v>
@@ -34759,8 +34846,8 @@
       <c r="D1421">
         <v>101</v>
       </c>
-      <c r="E1421" s="2">
-        <v>45755</v>
+      <c r="E1421" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="F1421">
         <v>42</v>
@@ -34782,8 +34869,8 @@
       <c r="D1422">
         <v>190</v>
       </c>
-      <c r="E1422" s="2">
-        <v>45756</v>
+      <c r="E1422" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="F1422">
         <v>42</v>
@@ -34805,8 +34892,8 @@
       <c r="D1423">
         <v>79</v>
       </c>
-      <c r="E1423" s="2">
-        <v>45756</v>
+      <c r="E1423" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="F1423">
         <v>42</v>
@@ -34828,8 +34915,8 @@
       <c r="D1424">
         <v>106</v>
       </c>
-      <c r="E1424" s="2">
-        <v>45756</v>
+      <c r="E1424" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="F1424">
         <v>42</v>
@@ -34851,8 +34938,8 @@
       <c r="D1425">
         <v>230</v>
       </c>
-      <c r="E1425" s="2">
-        <v>45757</v>
+      <c r="E1425" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="F1425">
         <v>42</v>
@@ -34874,8 +34961,8 @@
       <c r="D1426">
         <v>166</v>
       </c>
-      <c r="E1426" s="2">
-        <v>45757</v>
+      <c r="E1426" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="F1426">
         <v>42</v>
@@ -34897,8 +34984,8 @@
       <c r="D1427">
         <v>197</v>
       </c>
-      <c r="E1427" s="2">
-        <v>45757</v>
+      <c r="E1427" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="F1427">
         <v>42</v>
@@ -34920,8 +35007,8 @@
       <c r="D1428">
         <v>158</v>
       </c>
-      <c r="E1428" s="2">
-        <v>45758</v>
+      <c r="E1428" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="F1428">
         <v>42</v>
@@ -34943,8 +35030,8 @@
       <c r="D1429">
         <v>179</v>
       </c>
-      <c r="E1429" s="2">
-        <v>45758</v>
+      <c r="E1429" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="F1429">
         <v>42</v>
@@ -34966,8 +35053,8 @@
       <c r="D1430">
         <v>79</v>
       </c>
-      <c r="E1430" s="2">
-        <v>45758</v>
+      <c r="E1430" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="F1430">
         <v>42</v>
@@ -34989,8 +35076,8 @@
       <c r="D1431">
         <v>115</v>
       </c>
-      <c r="E1431" s="2">
-        <v>45759</v>
+      <c r="E1431" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="F1431">
         <v>42</v>
@@ -35012,8 +35099,8 @@
       <c r="D1432">
         <v>194</v>
       </c>
-      <c r="E1432" s="2">
-        <v>45759</v>
+      <c r="E1432" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="F1432">
         <v>42</v>
@@ -35035,8 +35122,8 @@
       <c r="D1433">
         <v>146</v>
       </c>
-      <c r="E1433" s="2">
-        <v>45759</v>
+      <c r="E1433" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="F1433">
         <v>42</v>
@@ -35058,8 +35145,8 @@
       <c r="D1434">
         <v>193</v>
       </c>
-      <c r="E1434" s="2">
-        <v>45760</v>
+      <c r="E1434" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="F1434">
         <v>42</v>
@@ -35081,8 +35168,8 @@
       <c r="D1435">
         <v>184</v>
       </c>
-      <c r="E1435" s="2">
-        <v>45760</v>
+      <c r="E1435" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="F1435">
         <v>42</v>
@@ -35104,8 +35191,8 @@
       <c r="D1436">
         <v>203</v>
       </c>
-      <c r="E1436" s="2">
-        <v>45760</v>
+      <c r="E1436" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="F1436">
         <v>42</v>
@@ -35127,8 +35214,8 @@
       <c r="D1437">
         <v>167</v>
       </c>
-      <c r="E1437" s="2">
-        <v>45761</v>
+      <c r="E1437" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="F1437">
         <v>42</v>
@@ -35150,8 +35237,8 @@
       <c r="D1438">
         <v>163</v>
       </c>
-      <c r="E1438" s="2">
-        <v>45761</v>
+      <c r="E1438" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="F1438">
         <v>42</v>
@@ -35173,8 +35260,8 @@
       <c r="D1439">
         <v>116</v>
       </c>
-      <c r="E1439" s="2">
-        <v>45761</v>
+      <c r="E1439" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="F1439">
         <v>42</v>
@@ -35196,8 +35283,8 @@
       <c r="D1440">
         <v>173</v>
       </c>
-      <c r="E1440" s="2">
-        <v>45762</v>
+      <c r="E1440" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="F1440">
         <v>42</v>
@@ -35219,8 +35306,8 @@
       <c r="D1441">
         <v>203</v>
       </c>
-      <c r="E1441" s="2">
-        <v>45762</v>
+      <c r="E1441" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="F1441">
         <v>42</v>
@@ -35242,8 +35329,8 @@
       <c r="D1442">
         <v>168</v>
       </c>
-      <c r="E1442" s="2">
-        <v>45762</v>
+      <c r="E1442" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="F1442">
         <v>42</v>
@@ -35265,8 +35352,8 @@
       <c r="D1443">
         <v>206</v>
       </c>
-      <c r="E1443" s="2">
-        <v>45763</v>
+      <c r="E1443" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="F1443">
         <v>42</v>
@@ -35288,8 +35375,8 @@
       <c r="D1444">
         <v>124</v>
       </c>
-      <c r="E1444" s="2">
-        <v>45763</v>
+      <c r="E1444" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="F1444">
         <v>42</v>
@@ -35311,8 +35398,8 @@
       <c r="D1445">
         <v>87</v>
       </c>
-      <c r="E1445" s="2">
-        <v>45763</v>
+      <c r="E1445" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="F1445">
         <v>42</v>
@@ -35334,8 +35421,8 @@
       <c r="D1446">
         <v>224</v>
       </c>
-      <c r="E1446" s="2">
-        <v>45764</v>
+      <c r="E1446" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="F1446">
         <v>42</v>
@@ -35357,8 +35444,8 @@
       <c r="D1447">
         <v>144</v>
       </c>
-      <c r="E1447" s="2">
-        <v>45764</v>
+      <c r="E1447" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="F1447">
         <v>42</v>
@@ -35380,8 +35467,8 @@
       <c r="D1448">
         <v>118</v>
       </c>
-      <c r="E1448" s="2">
-        <v>45764</v>
+      <c r="E1448" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="F1448">
         <v>42</v>
@@ -35403,8 +35490,8 @@
       <c r="D1449">
         <v>214</v>
       </c>
-      <c r="E1449" s="2">
-        <v>45765</v>
+      <c r="E1449" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="F1449">
         <v>42</v>
@@ -35426,8 +35513,8 @@
       <c r="D1450">
         <v>93</v>
       </c>
-      <c r="E1450" s="2">
-        <v>45765</v>
+      <c r="E1450" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="F1450">
         <v>42</v>
@@ -35449,8 +35536,8 @@
       <c r="D1451">
         <v>136</v>
       </c>
-      <c r="E1451" s="2">
-        <v>45765</v>
+      <c r="E1451" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="F1451">
         <v>42</v>
@@ -35472,8 +35559,8 @@
       <c r="D1452">
         <v>202</v>
       </c>
-      <c r="E1452" s="2">
-        <v>45766</v>
+      <c r="E1452" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="F1452">
         <v>42</v>
@@ -35495,8 +35582,8 @@
       <c r="D1453">
         <v>101</v>
       </c>
-      <c r="E1453" s="2">
-        <v>45766</v>
+      <c r="E1453" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="F1453">
         <v>42</v>
@@ -35518,8 +35605,8 @@
       <c r="D1454">
         <v>139</v>
       </c>
-      <c r="E1454" s="2">
-        <v>45766</v>
+      <c r="E1454" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="F1454">
         <v>42</v>
@@ -35541,8 +35628,8 @@
       <c r="D1455">
         <v>102</v>
       </c>
-      <c r="E1455" s="2">
-        <v>45767</v>
+      <c r="E1455" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="F1455">
         <v>42</v>
@@ -35564,8 +35651,8 @@
       <c r="D1456">
         <v>83</v>
       </c>
-      <c r="E1456" s="2">
-        <v>45767</v>
+      <c r="E1456" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="F1456">
         <v>42</v>
@@ -35587,8 +35674,8 @@
       <c r="D1457">
         <v>159</v>
       </c>
-      <c r="E1457" s="2">
-        <v>45767</v>
+      <c r="E1457" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="F1457">
         <v>42</v>
@@ -35610,8 +35697,8 @@
       <c r="D1458">
         <v>205</v>
       </c>
-      <c r="E1458" s="2">
-        <v>45768</v>
+      <c r="E1458" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="F1458">
         <v>42</v>
@@ -35633,8 +35720,8 @@
       <c r="D1459">
         <v>108</v>
       </c>
-      <c r="E1459" s="2">
-        <v>45768</v>
+      <c r="E1459" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="F1459">
         <v>42</v>
@@ -35656,8 +35743,8 @@
       <c r="D1460">
         <v>132</v>
       </c>
-      <c r="E1460" s="2">
-        <v>45768</v>
+      <c r="E1460" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="F1460">
         <v>42</v>
@@ -35679,8 +35766,8 @@
       <c r="D1461">
         <v>127</v>
       </c>
-      <c r="E1461" s="2">
-        <v>45769</v>
+      <c r="E1461" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="F1461">
         <v>42</v>
@@ -35702,8 +35789,8 @@
       <c r="D1462">
         <v>110</v>
       </c>
-      <c r="E1462" s="2">
-        <v>45769</v>
+      <c r="E1462" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="F1462">
         <v>42</v>
@@ -35725,8 +35812,8 @@
       <c r="D1463">
         <v>238</v>
       </c>
-      <c r="E1463" s="2">
-        <v>45769</v>
+      <c r="E1463" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="F1463">
         <v>42</v>
@@ -35748,8 +35835,8 @@
       <c r="D1464">
         <v>196</v>
       </c>
-      <c r="E1464" s="2">
-        <v>45770</v>
+      <c r="E1464" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="F1464">
         <v>42</v>
@@ -35771,8 +35858,8 @@
       <c r="D1465">
         <v>156</v>
       </c>
-      <c r="E1465" s="2">
-        <v>45770</v>
+      <c r="E1465" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="F1465">
         <v>42</v>
@@ -35794,8 +35881,8 @@
       <c r="D1466">
         <v>217</v>
       </c>
-      <c r="E1466" s="2">
-        <v>45770</v>
+      <c r="E1466" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="F1466">
         <v>42</v>
@@ -35817,8 +35904,8 @@
       <c r="D1467">
         <v>172</v>
       </c>
-      <c r="E1467" s="2">
-        <v>45771</v>
+      <c r="E1467" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="F1467">
         <v>42</v>
@@ -35840,8 +35927,8 @@
       <c r="D1468">
         <v>91</v>
       </c>
-      <c r="E1468" s="2">
-        <v>45771</v>
+      <c r="E1468" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="F1468">
         <v>42</v>
@@ -35863,8 +35950,8 @@
       <c r="D1469">
         <v>170</v>
       </c>
-      <c r="E1469" s="2">
-        <v>45771</v>
+      <c r="E1469" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="F1469">
         <v>42</v>
@@ -35886,8 +35973,8 @@
       <c r="D1470">
         <v>175</v>
       </c>
-      <c r="E1470" s="2">
-        <v>45772</v>
+      <c r="E1470" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="F1470">
         <v>42</v>
@@ -35909,8 +35996,8 @@
       <c r="D1471">
         <v>224</v>
       </c>
-      <c r="E1471" s="2">
-        <v>45772</v>
+      <c r="E1471" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="F1471">
         <v>42</v>
@@ -35932,8 +36019,8 @@
       <c r="D1472">
         <v>171</v>
       </c>
-      <c r="E1472" s="2">
-        <v>45772</v>
+      <c r="E1472" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="F1472">
         <v>42</v>
@@ -35955,8 +36042,8 @@
       <c r="D1473">
         <v>85</v>
       </c>
-      <c r="E1473" s="2">
-        <v>45773</v>
+      <c r="E1473" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="F1473">
         <v>42</v>
@@ -35978,8 +36065,8 @@
       <c r="D1474">
         <v>128</v>
       </c>
-      <c r="E1474" s="2">
-        <v>45773</v>
+      <c r="E1474" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="F1474">
         <v>42</v>
@@ -36001,8 +36088,8 @@
       <c r="D1475">
         <v>195</v>
       </c>
-      <c r="E1475" s="2">
-        <v>45773</v>
+      <c r="E1475" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="F1475">
         <v>42</v>
@@ -36024,8 +36111,8 @@
       <c r="D1476">
         <v>101</v>
       </c>
-      <c r="E1476" s="2">
-        <v>45774</v>
+      <c r="E1476" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="F1476">
         <v>42</v>
@@ -36047,8 +36134,8 @@
       <c r="D1477">
         <v>130</v>
       </c>
-      <c r="E1477" s="2">
-        <v>45774</v>
+      <c r="E1477" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="F1477">
         <v>42</v>
@@ -36070,8 +36157,8 @@
       <c r="D1478">
         <v>83</v>
       </c>
-      <c r="E1478" s="2">
-        <v>45774</v>
+      <c r="E1478" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="F1478">
         <v>42</v>
@@ -36093,8 +36180,8 @@
       <c r="D1479">
         <v>239</v>
       </c>
-      <c r="E1479" s="2">
-        <v>45775</v>
+      <c r="E1479" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="F1479">
         <v>42</v>
@@ -36116,8 +36203,8 @@
       <c r="D1480">
         <v>243</v>
       </c>
-      <c r="E1480" s="2">
-        <v>45775</v>
+      <c r="E1480" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="F1480">
         <v>42</v>
@@ -36139,8 +36226,8 @@
       <c r="D1481">
         <v>148</v>
       </c>
-      <c r="E1481" s="2">
-        <v>45775</v>
+      <c r="E1481" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="F1481">
         <v>42</v>
@@ -36162,8 +36249,8 @@
       <c r="D1482">
         <v>230</v>
       </c>
-      <c r="E1482" s="2">
-        <v>45776</v>
+      <c r="E1482" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="F1482">
         <v>42</v>
@@ -36185,8 +36272,8 @@
       <c r="D1483">
         <v>210</v>
       </c>
-      <c r="E1483" s="2">
-        <v>45776</v>
+      <c r="E1483" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="F1483">
         <v>42</v>
@@ -36208,8 +36295,8 @@
       <c r="D1484">
         <v>138</v>
       </c>
-      <c r="E1484" s="2">
-        <v>45776</v>
+      <c r="E1484" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="F1484">
         <v>42</v>
@@ -36231,8 +36318,8 @@
       <c r="D1485">
         <v>193</v>
       </c>
-      <c r="E1485" s="2">
-        <v>45777</v>
+      <c r="E1485" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="F1485">
         <v>42</v>
@@ -36254,8 +36341,8 @@
       <c r="D1486">
         <v>157</v>
       </c>
-      <c r="E1486" s="2">
-        <v>45777</v>
+      <c r="E1486" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="F1486">
         <v>42</v>
@@ -36277,8 +36364,8 @@
       <c r="D1487">
         <v>194</v>
       </c>
-      <c r="E1487" s="2">
-        <v>45777</v>
+      <c r="E1487" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="F1487">
         <v>42</v>
@@ -36300,7 +36387,7 @@
       <c r="D1488">
         <v>228</v>
       </c>
-      <c r="E1488" s="3" t="s">
+      <c r="E1488" s="2" t="s">
         <v>555</v>
       </c>
       <c r="F1488">
@@ -36323,7 +36410,7 @@
       <c r="D1489">
         <v>232</v>
       </c>
-      <c r="E1489" s="3" t="s">
+      <c r="E1489" s="2" t="s">
         <v>555</v>
       </c>
       <c r="F1489">
@@ -36346,7 +36433,7 @@
       <c r="D1490">
         <v>88</v>
       </c>
-      <c r="E1490" s="3" t="s">
+      <c r="E1490" s="2" t="s">
         <v>555</v>
       </c>
       <c r="F1490">

--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691190CA-593D-43F6-8BE4-4A29D097382C}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85457FC9-180C-44C1-8DA3-09A73B15B3B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="555">
   <si>
     <t>Mês</t>
   </si>
@@ -1698,99 +1698,6 @@
   </si>
   <si>
     <t>25/03/2025</t>
-  </si>
-  <si>
-    <t>31/04/2025</t>
-  </si>
-  <si>
-    <t>01/04/2025</t>
-  </si>
-  <si>
-    <t>02/04/2025</t>
-  </si>
-  <si>
-    <t>03/04/2025</t>
-  </si>
-  <si>
-    <t>04/04/2025</t>
-  </si>
-  <si>
-    <t>05/04/2025</t>
-  </si>
-  <si>
-    <t>06/04/2025</t>
-  </si>
-  <si>
-    <t>07/04/2025</t>
-  </si>
-  <si>
-    <t>08/04/2025</t>
-  </si>
-  <si>
-    <t>09/04/2025</t>
-  </si>
-  <si>
-    <t>10/04/2025</t>
-  </si>
-  <si>
-    <t>11/04/2025</t>
-  </si>
-  <si>
-    <t>12/04/2025</t>
-  </si>
-  <si>
-    <t>13/04/2025</t>
-  </si>
-  <si>
-    <t>14/04/2025</t>
-  </si>
-  <si>
-    <t>15/04/2025</t>
-  </si>
-  <si>
-    <t>16/04/2025</t>
-  </si>
-  <si>
-    <t>17/04/2025</t>
-  </si>
-  <si>
-    <t>18/04/2025</t>
-  </si>
-  <si>
-    <t>19/04/2025</t>
-  </si>
-  <si>
-    <t>20/04/2025</t>
-  </si>
-  <si>
-    <t>21/04/2025</t>
-  </si>
-  <si>
-    <t>22/04/2025</t>
-  </si>
-  <si>
-    <t>23/04/2025</t>
-  </si>
-  <si>
-    <t>24/04/2025</t>
-  </si>
-  <si>
-    <t>25/04/2025</t>
-  </si>
-  <si>
-    <t>26/04/2025</t>
-  </si>
-  <si>
-    <t>27/04/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025</t>
-  </si>
-  <si>
-    <t>29/04/2025</t>
-  </si>
-  <si>
-    <t>30/04/2025</t>
   </si>
 </sst>
 </file>
@@ -1849,13 +1756,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1490"/>
+  <dimension ref="A1:G1397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1425" sqref="E1425:E1490"/>
+      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1398" sqref="A1398:XFD1490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34304,2145 +34208,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1398">
-        <v>4</v>
-      </c>
-      <c r="B1398">
-        <v>1</v>
-      </c>
-      <c r="C1398" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1398">
-        <v>167</v>
-      </c>
-      <c r="E1398" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1398">
-        <v>42</v>
-      </c>
-      <c r="G1398">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1399">
-        <v>4</v>
-      </c>
-      <c r="B1399">
-        <v>1</v>
-      </c>
-      <c r="C1399" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1399">
-        <v>71</v>
-      </c>
-      <c r="E1399" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1399">
-        <v>42</v>
-      </c>
-      <c r="G1399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1400">
-        <v>4</v>
-      </c>
-      <c r="B1400">
-        <v>1</v>
-      </c>
-      <c r="C1400" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1400">
-        <v>219</v>
-      </c>
-      <c r="E1400" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1400">
-        <v>42</v>
-      </c>
-      <c r="G1400">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1401">
-        <v>4</v>
-      </c>
-      <c r="B1401">
-        <v>2</v>
-      </c>
-      <c r="C1401" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1401">
-        <v>97</v>
-      </c>
-      <c r="E1401" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F1401">
-        <v>42</v>
-      </c>
-      <c r="G1401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1402">
-        <v>4</v>
-      </c>
-      <c r="B1402">
-        <v>2</v>
-      </c>
-      <c r="C1402" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1402">
-        <v>180</v>
-      </c>
-      <c r="E1402" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F1402">
-        <v>42</v>
-      </c>
-      <c r="G1402">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1403">
-        <v>4</v>
-      </c>
-      <c r="B1403">
-        <v>2</v>
-      </c>
-      <c r="C1403" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1403">
-        <v>164</v>
-      </c>
-      <c r="E1403" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F1403">
-        <v>42</v>
-      </c>
-      <c r="G1403">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1404">
-        <v>4</v>
-      </c>
-      <c r="B1404">
-        <v>3</v>
-      </c>
-      <c r="C1404" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1404">
-        <v>215</v>
-      </c>
-      <c r="E1404" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1404">
-        <v>42</v>
-      </c>
-      <c r="G1404">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1405">
-        <v>4</v>
-      </c>
-      <c r="B1405">
-        <v>3</v>
-      </c>
-      <c r="C1405" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1405">
-        <v>80</v>
-      </c>
-      <c r="E1405" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1405">
-        <v>42</v>
-      </c>
-      <c r="G1405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1406">
-        <v>4</v>
-      </c>
-      <c r="B1406">
-        <v>3</v>
-      </c>
-      <c r="C1406" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1406">
-        <v>213</v>
-      </c>
-      <c r="E1406" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1406">
-        <v>42</v>
-      </c>
-      <c r="G1406">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1407">
-        <v>4</v>
-      </c>
-      <c r="B1407">
-        <v>4</v>
-      </c>
-      <c r="C1407" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1407">
-        <v>244</v>
-      </c>
-      <c r="E1407" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1407">
-        <v>42</v>
-      </c>
-      <c r="G1407">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1408">
-        <v>4</v>
-      </c>
-      <c r="B1408">
-        <v>4</v>
-      </c>
-      <c r="C1408" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1408">
-        <v>104</v>
-      </c>
-      <c r="E1408" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1408">
-        <v>42</v>
-      </c>
-      <c r="G1408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1409">
-        <v>4</v>
-      </c>
-      <c r="B1409">
-        <v>4</v>
-      </c>
-      <c r="C1409" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1409">
-        <v>139</v>
-      </c>
-      <c r="E1409" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1409">
-        <v>42</v>
-      </c>
-      <c r="G1409">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1410">
-        <v>4</v>
-      </c>
-      <c r="B1410">
-        <v>5</v>
-      </c>
-      <c r="C1410" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1410">
-        <v>206</v>
-      </c>
-      <c r="E1410" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F1410">
-        <v>42</v>
-      </c>
-      <c r="G1410">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1411">
-        <v>4</v>
-      </c>
-      <c r="B1411">
-        <v>5</v>
-      </c>
-      <c r="C1411" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1411">
-        <v>237</v>
-      </c>
-      <c r="E1411" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F1411">
-        <v>42</v>
-      </c>
-      <c r="G1411">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1412">
-        <v>4</v>
-      </c>
-      <c r="B1412">
-        <v>5</v>
-      </c>
-      <c r="C1412" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1412">
-        <v>172</v>
-      </c>
-      <c r="E1412" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F1412">
-        <v>42</v>
-      </c>
-      <c r="G1412">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1413">
-        <v>4</v>
-      </c>
-      <c r="B1413">
-        <v>6</v>
-      </c>
-      <c r="C1413" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1413">
-        <v>129</v>
-      </c>
-      <c r="E1413" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1413">
-        <v>42</v>
-      </c>
-      <c r="G1413">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1414">
-        <v>4</v>
-      </c>
-      <c r="B1414">
-        <v>6</v>
-      </c>
-      <c r="C1414" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1414">
-        <v>178</v>
-      </c>
-      <c r="E1414" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1414">
-        <v>42</v>
-      </c>
-      <c r="G1414">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1415">
-        <v>4</v>
-      </c>
-      <c r="B1415">
-        <v>6</v>
-      </c>
-      <c r="C1415" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1415">
-        <v>149</v>
-      </c>
-      <c r="E1415" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1415">
-        <v>42</v>
-      </c>
-      <c r="G1415">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1416">
-        <v>4</v>
-      </c>
-      <c r="B1416">
-        <v>7</v>
-      </c>
-      <c r="C1416" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1416">
-        <v>104</v>
-      </c>
-      <c r="E1416" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1416">
-        <v>42</v>
-      </c>
-      <c r="G1416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1417">
-        <v>4</v>
-      </c>
-      <c r="B1417">
-        <v>7</v>
-      </c>
-      <c r="C1417" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1417">
-        <v>136</v>
-      </c>
-      <c r="E1417" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1417">
-        <v>42</v>
-      </c>
-      <c r="G1417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1418">
-        <v>4</v>
-      </c>
-      <c r="B1418">
-        <v>7</v>
-      </c>
-      <c r="C1418" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1418">
-        <v>101</v>
-      </c>
-      <c r="E1418" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1418">
-        <v>42</v>
-      </c>
-      <c r="G1418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1419">
-        <v>4</v>
-      </c>
-      <c r="B1419">
-        <v>8</v>
-      </c>
-      <c r="C1419" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1419">
-        <v>235</v>
-      </c>
-      <c r="E1419" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F1419">
-        <v>42</v>
-      </c>
-      <c r="G1419">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1420">
-        <v>4</v>
-      </c>
-      <c r="B1420">
-        <v>8</v>
-      </c>
-      <c r="C1420" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1420">
-        <v>171</v>
-      </c>
-      <c r="E1420" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F1420">
-        <v>42</v>
-      </c>
-      <c r="G1420">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1421">
-        <v>4</v>
-      </c>
-      <c r="B1421">
-        <v>8</v>
-      </c>
-      <c r="C1421" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1421">
-        <v>101</v>
-      </c>
-      <c r="E1421" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F1421">
-        <v>42</v>
-      </c>
-      <c r="G1421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1422">
-        <v>4</v>
-      </c>
-      <c r="B1422">
-        <v>9</v>
-      </c>
-      <c r="C1422" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1422">
-        <v>190</v>
-      </c>
-      <c r="E1422" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F1422">
-        <v>42</v>
-      </c>
-      <c r="G1422">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1423">
-        <v>4</v>
-      </c>
-      <c r="B1423">
-        <v>9</v>
-      </c>
-      <c r="C1423" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1423">
-        <v>79</v>
-      </c>
-      <c r="E1423" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F1423">
-        <v>42</v>
-      </c>
-      <c r="G1423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1424">
-        <v>4</v>
-      </c>
-      <c r="B1424">
-        <v>9</v>
-      </c>
-      <c r="C1424" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1424">
-        <v>106</v>
-      </c>
-      <c r="E1424" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F1424">
-        <v>42</v>
-      </c>
-      <c r="G1424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1425">
-        <v>4</v>
-      </c>
-      <c r="B1425">
-        <v>10</v>
-      </c>
-      <c r="C1425" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1425">
-        <v>230</v>
-      </c>
-      <c r="E1425" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F1425">
-        <v>42</v>
-      </c>
-      <c r="G1425">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1426">
-        <v>4</v>
-      </c>
-      <c r="B1426">
-        <v>10</v>
-      </c>
-      <c r="C1426" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1426">
-        <v>166</v>
-      </c>
-      <c r="E1426" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F1426">
-        <v>42</v>
-      </c>
-      <c r="G1426">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1427">
-        <v>4</v>
-      </c>
-      <c r="B1427">
-        <v>10</v>
-      </c>
-      <c r="C1427" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1427">
-        <v>197</v>
-      </c>
-      <c r="E1427" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F1427">
-        <v>42</v>
-      </c>
-      <c r="G1427">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1428">
-        <v>4</v>
-      </c>
-      <c r="B1428">
-        <v>11</v>
-      </c>
-      <c r="C1428" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1428">
-        <v>158</v>
-      </c>
-      <c r="E1428" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F1428">
-        <v>42</v>
-      </c>
-      <c r="G1428">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1429">
-        <v>4</v>
-      </c>
-      <c r="B1429">
-        <v>11</v>
-      </c>
-      <c r="C1429" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1429">
-        <v>179</v>
-      </c>
-      <c r="E1429" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F1429">
-        <v>42</v>
-      </c>
-      <c r="G1429">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1430">
-        <v>4</v>
-      </c>
-      <c r="B1430">
-        <v>11</v>
-      </c>
-      <c r="C1430" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1430">
-        <v>79</v>
-      </c>
-      <c r="E1430" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F1430">
-        <v>42</v>
-      </c>
-      <c r="G1430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1431">
-        <v>4</v>
-      </c>
-      <c r="B1431">
-        <v>12</v>
-      </c>
-      <c r="C1431" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1431">
-        <v>115</v>
-      </c>
-      <c r="E1431" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F1431">
-        <v>42</v>
-      </c>
-      <c r="G1431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1432">
-        <v>4</v>
-      </c>
-      <c r="B1432">
-        <v>12</v>
-      </c>
-      <c r="C1432" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1432">
-        <v>194</v>
-      </c>
-      <c r="E1432" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F1432">
-        <v>42</v>
-      </c>
-      <c r="G1432">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1433">
-        <v>4</v>
-      </c>
-      <c r="B1433">
-        <v>12</v>
-      </c>
-      <c r="C1433" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1433">
-        <v>146</v>
-      </c>
-      <c r="E1433" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F1433">
-        <v>42</v>
-      </c>
-      <c r="G1433">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1434">
-        <v>4</v>
-      </c>
-      <c r="B1434">
-        <v>13</v>
-      </c>
-      <c r="C1434" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1434">
-        <v>193</v>
-      </c>
-      <c r="E1434" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F1434">
-        <v>42</v>
-      </c>
-      <c r="G1434">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1435">
-        <v>4</v>
-      </c>
-      <c r="B1435">
-        <v>13</v>
-      </c>
-      <c r="C1435" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1435">
-        <v>184</v>
-      </c>
-      <c r="E1435" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F1435">
-        <v>42</v>
-      </c>
-      <c r="G1435">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1436">
-        <v>4</v>
-      </c>
-      <c r="B1436">
-        <v>13</v>
-      </c>
-      <c r="C1436" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1436">
-        <v>203</v>
-      </c>
-      <c r="E1436" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F1436">
-        <v>42</v>
-      </c>
-      <c r="G1436">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1437">
-        <v>4</v>
-      </c>
-      <c r="B1437">
-        <v>14</v>
-      </c>
-      <c r="C1437" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1437">
-        <v>167</v>
-      </c>
-      <c r="E1437" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F1437">
-        <v>42</v>
-      </c>
-      <c r="G1437">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1438">
-        <v>4</v>
-      </c>
-      <c r="B1438">
-        <v>14</v>
-      </c>
-      <c r="C1438" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1438">
-        <v>163</v>
-      </c>
-      <c r="E1438" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F1438">
-        <v>42</v>
-      </c>
-      <c r="G1438">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1439">
-        <v>4</v>
-      </c>
-      <c r="B1439">
-        <v>14</v>
-      </c>
-      <c r="C1439" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1439">
-        <v>116</v>
-      </c>
-      <c r="E1439" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F1439">
-        <v>42</v>
-      </c>
-      <c r="G1439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1440">
-        <v>4</v>
-      </c>
-      <c r="B1440">
-        <v>15</v>
-      </c>
-      <c r="C1440" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1440">
-        <v>173</v>
-      </c>
-      <c r="E1440" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F1440">
-        <v>42</v>
-      </c>
-      <c r="G1440">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1441">
-        <v>4</v>
-      </c>
-      <c r="B1441">
-        <v>15</v>
-      </c>
-      <c r="C1441" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1441">
-        <v>203</v>
-      </c>
-      <c r="E1441" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F1441">
-        <v>42</v>
-      </c>
-      <c r="G1441">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1442">
-        <v>4</v>
-      </c>
-      <c r="B1442">
-        <v>15</v>
-      </c>
-      <c r="C1442" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1442">
-        <v>168</v>
-      </c>
-      <c r="E1442" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F1442">
-        <v>42</v>
-      </c>
-      <c r="G1442">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1443">
-        <v>4</v>
-      </c>
-      <c r="B1443">
-        <v>16</v>
-      </c>
-      <c r="C1443" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1443">
-        <v>206</v>
-      </c>
-      <c r="E1443" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F1443">
-        <v>42</v>
-      </c>
-      <c r="G1443">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1444">
-        <v>4</v>
-      </c>
-      <c r="B1444">
-        <v>16</v>
-      </c>
-      <c r="C1444" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1444">
-        <v>124</v>
-      </c>
-      <c r="E1444" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F1444">
-        <v>42</v>
-      </c>
-      <c r="G1444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1445">
-        <v>4</v>
-      </c>
-      <c r="B1445">
-        <v>16</v>
-      </c>
-      <c r="C1445" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1445">
-        <v>87</v>
-      </c>
-      <c r="E1445" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F1445">
-        <v>42</v>
-      </c>
-      <c r="G1445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1446">
-        <v>4</v>
-      </c>
-      <c r="B1446">
-        <v>17</v>
-      </c>
-      <c r="C1446" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1446">
-        <v>224</v>
-      </c>
-      <c r="E1446" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1446">
-        <v>42</v>
-      </c>
-      <c r="G1446">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1447">
-        <v>4</v>
-      </c>
-      <c r="B1447">
-        <v>17</v>
-      </c>
-      <c r="C1447" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1447">
-        <v>144</v>
-      </c>
-      <c r="E1447" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1447">
-        <v>42</v>
-      </c>
-      <c r="G1447">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1448">
-        <v>4</v>
-      </c>
-      <c r="B1448">
-        <v>17</v>
-      </c>
-      <c r="C1448" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1448">
-        <v>118</v>
-      </c>
-      <c r="E1448" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1448">
-        <v>42</v>
-      </c>
-      <c r="G1448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1449">
-        <v>4</v>
-      </c>
-      <c r="B1449">
-        <v>18</v>
-      </c>
-      <c r="C1449" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1449">
-        <v>214</v>
-      </c>
-      <c r="E1449" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F1449">
-        <v>42</v>
-      </c>
-      <c r="G1449">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1450">
-        <v>4</v>
-      </c>
-      <c r="B1450">
-        <v>18</v>
-      </c>
-      <c r="C1450" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1450">
-        <v>93</v>
-      </c>
-      <c r="E1450" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F1450">
-        <v>42</v>
-      </c>
-      <c r="G1450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1451">
-        <v>4</v>
-      </c>
-      <c r="B1451">
-        <v>18</v>
-      </c>
-      <c r="C1451" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1451">
-        <v>136</v>
-      </c>
-      <c r="E1451" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F1451">
-        <v>42</v>
-      </c>
-      <c r="G1451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1452">
-        <v>4</v>
-      </c>
-      <c r="B1452">
-        <v>19</v>
-      </c>
-      <c r="C1452" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1452">
-        <v>202</v>
-      </c>
-      <c r="E1452" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F1452">
-        <v>42</v>
-      </c>
-      <c r="G1452">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1453">
-        <v>4</v>
-      </c>
-      <c r="B1453">
-        <v>19</v>
-      </c>
-      <c r="C1453" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1453">
-        <v>101</v>
-      </c>
-      <c r="E1453" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F1453">
-        <v>42</v>
-      </c>
-      <c r="G1453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1454">
-        <v>4</v>
-      </c>
-      <c r="B1454">
-        <v>19</v>
-      </c>
-      <c r="C1454" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1454">
-        <v>139</v>
-      </c>
-      <c r="E1454" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F1454">
-        <v>42</v>
-      </c>
-      <c r="G1454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1455">
-        <v>4</v>
-      </c>
-      <c r="B1455">
-        <v>20</v>
-      </c>
-      <c r="C1455" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1455">
-        <v>102</v>
-      </c>
-      <c r="E1455" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F1455">
-        <v>42</v>
-      </c>
-      <c r="G1455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1456">
-        <v>4</v>
-      </c>
-      <c r="B1456">
-        <v>20</v>
-      </c>
-      <c r="C1456" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1456">
-        <v>83</v>
-      </c>
-      <c r="E1456" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F1456">
-        <v>42</v>
-      </c>
-      <c r="G1456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1457">
-        <v>4</v>
-      </c>
-      <c r="B1457">
-        <v>20</v>
-      </c>
-      <c r="C1457" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1457">
-        <v>159</v>
-      </c>
-      <c r="E1457" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F1457">
-        <v>42</v>
-      </c>
-      <c r="G1457">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1458">
-        <v>4</v>
-      </c>
-      <c r="B1458">
-        <v>21</v>
-      </c>
-      <c r="C1458" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1458">
-        <v>205</v>
-      </c>
-      <c r="E1458" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F1458">
-        <v>42</v>
-      </c>
-      <c r="G1458">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1459">
-        <v>4</v>
-      </c>
-      <c r="B1459">
-        <v>21</v>
-      </c>
-      <c r="C1459" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1459">
-        <v>108</v>
-      </c>
-      <c r="E1459" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F1459">
-        <v>42</v>
-      </c>
-      <c r="G1459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1460">
-        <v>4</v>
-      </c>
-      <c r="B1460">
-        <v>21</v>
-      </c>
-      <c r="C1460" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1460">
-        <v>132</v>
-      </c>
-      <c r="E1460" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F1460">
-        <v>42</v>
-      </c>
-      <c r="G1460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1461">
-        <v>4</v>
-      </c>
-      <c r="B1461">
-        <v>22</v>
-      </c>
-      <c r="C1461" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1461">
-        <v>127</v>
-      </c>
-      <c r="E1461" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F1461">
-        <v>42</v>
-      </c>
-      <c r="G1461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1462">
-        <v>4</v>
-      </c>
-      <c r="B1462">
-        <v>22</v>
-      </c>
-      <c r="C1462" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1462">
-        <v>110</v>
-      </c>
-      <c r="E1462" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F1462">
-        <v>42</v>
-      </c>
-      <c r="G1462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1463">
-        <v>4</v>
-      </c>
-      <c r="B1463">
-        <v>22</v>
-      </c>
-      <c r="C1463" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1463">
-        <v>238</v>
-      </c>
-      <c r="E1463" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F1463">
-        <v>42</v>
-      </c>
-      <c r="G1463">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1464">
-        <v>4</v>
-      </c>
-      <c r="B1464">
-        <v>23</v>
-      </c>
-      <c r="C1464" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1464">
-        <v>196</v>
-      </c>
-      <c r="E1464" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F1464">
-        <v>42</v>
-      </c>
-      <c r="G1464">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1465">
-        <v>4</v>
-      </c>
-      <c r="B1465">
-        <v>23</v>
-      </c>
-      <c r="C1465" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1465">
-        <v>156</v>
-      </c>
-      <c r="E1465" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F1465">
-        <v>42</v>
-      </c>
-      <c r="G1465">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1466">
-        <v>4</v>
-      </c>
-      <c r="B1466">
-        <v>23</v>
-      </c>
-      <c r="C1466" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1466">
-        <v>217</v>
-      </c>
-      <c r="E1466" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F1466">
-        <v>42</v>
-      </c>
-      <c r="G1466">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1467">
-        <v>4</v>
-      </c>
-      <c r="B1467">
-        <v>24</v>
-      </c>
-      <c r="C1467" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1467">
-        <v>172</v>
-      </c>
-      <c r="E1467" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F1467">
-        <v>42</v>
-      </c>
-      <c r="G1467">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1468">
-        <v>4</v>
-      </c>
-      <c r="B1468">
-        <v>24</v>
-      </c>
-      <c r="C1468" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1468">
-        <v>91</v>
-      </c>
-      <c r="E1468" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F1468">
-        <v>42</v>
-      </c>
-      <c r="G1468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1469">
-        <v>4</v>
-      </c>
-      <c r="B1469">
-        <v>24</v>
-      </c>
-      <c r="C1469" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1469">
-        <v>170</v>
-      </c>
-      <c r="E1469" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F1469">
-        <v>42</v>
-      </c>
-      <c r="G1469">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1470">
-        <v>4</v>
-      </c>
-      <c r="B1470">
-        <v>25</v>
-      </c>
-      <c r="C1470" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1470">
-        <v>175</v>
-      </c>
-      <c r="E1470" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F1470">
-        <v>42</v>
-      </c>
-      <c r="G1470">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1471">
-        <v>4</v>
-      </c>
-      <c r="B1471">
-        <v>25</v>
-      </c>
-      <c r="C1471" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1471">
-        <v>224</v>
-      </c>
-      <c r="E1471" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F1471">
-        <v>42</v>
-      </c>
-      <c r="G1471">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1472">
-        <v>4</v>
-      </c>
-      <c r="B1472">
-        <v>25</v>
-      </c>
-      <c r="C1472" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1472">
-        <v>171</v>
-      </c>
-      <c r="E1472" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F1472">
-        <v>42</v>
-      </c>
-      <c r="G1472">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1473">
-        <v>4</v>
-      </c>
-      <c r="B1473">
-        <v>26</v>
-      </c>
-      <c r="C1473" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1473">
-        <v>85</v>
-      </c>
-      <c r="E1473" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F1473">
-        <v>42</v>
-      </c>
-      <c r="G1473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1474">
-        <v>4</v>
-      </c>
-      <c r="B1474">
-        <v>26</v>
-      </c>
-      <c r="C1474" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1474">
-        <v>128</v>
-      </c>
-      <c r="E1474" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F1474">
-        <v>42</v>
-      </c>
-      <c r="G1474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1475">
-        <v>4</v>
-      </c>
-      <c r="B1475">
-        <v>26</v>
-      </c>
-      <c r="C1475" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1475">
-        <v>195</v>
-      </c>
-      <c r="E1475" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F1475">
-        <v>42</v>
-      </c>
-      <c r="G1475">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1476">
-        <v>4</v>
-      </c>
-      <c r="B1476">
-        <v>27</v>
-      </c>
-      <c r="C1476" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1476">
-        <v>101</v>
-      </c>
-      <c r="E1476" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F1476">
-        <v>42</v>
-      </c>
-      <c r="G1476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1477">
-        <v>4</v>
-      </c>
-      <c r="B1477">
-        <v>27</v>
-      </c>
-      <c r="C1477" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1477">
-        <v>130</v>
-      </c>
-      <c r="E1477" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F1477">
-        <v>42</v>
-      </c>
-      <c r="G1477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1478">
-        <v>4</v>
-      </c>
-      <c r="B1478">
-        <v>27</v>
-      </c>
-      <c r="C1478" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1478">
-        <v>83</v>
-      </c>
-      <c r="E1478" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F1478">
-        <v>42</v>
-      </c>
-      <c r="G1478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1479">
-        <v>4</v>
-      </c>
-      <c r="B1479">
-        <v>28</v>
-      </c>
-      <c r="C1479" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1479">
-        <v>239</v>
-      </c>
-      <c r="E1479" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F1479">
-        <v>42</v>
-      </c>
-      <c r="G1479">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1480">
-        <v>4</v>
-      </c>
-      <c r="B1480">
-        <v>28</v>
-      </c>
-      <c r="C1480" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1480">
-        <v>243</v>
-      </c>
-      <c r="E1480" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F1480">
-        <v>42</v>
-      </c>
-      <c r="G1480">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1481">
-        <v>4</v>
-      </c>
-      <c r="B1481">
-        <v>28</v>
-      </c>
-      <c r="C1481" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1481">
-        <v>148</v>
-      </c>
-      <c r="E1481" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F1481">
-        <v>42</v>
-      </c>
-      <c r="G1481">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1482">
-        <v>4</v>
-      </c>
-      <c r="B1482">
-        <v>29</v>
-      </c>
-      <c r="C1482" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1482">
-        <v>230</v>
-      </c>
-      <c r="E1482" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F1482">
-        <v>42</v>
-      </c>
-      <c r="G1482">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1483">
-        <v>4</v>
-      </c>
-      <c r="B1483">
-        <v>29</v>
-      </c>
-      <c r="C1483" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1483">
-        <v>210</v>
-      </c>
-      <c r="E1483" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F1483">
-        <v>42</v>
-      </c>
-      <c r="G1483">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1484">
-        <v>4</v>
-      </c>
-      <c r="B1484">
-        <v>29</v>
-      </c>
-      <c r="C1484" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1484">
-        <v>138</v>
-      </c>
-      <c r="E1484" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F1484">
-        <v>42</v>
-      </c>
-      <c r="G1484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1485">
-        <v>4</v>
-      </c>
-      <c r="B1485">
-        <v>30</v>
-      </c>
-      <c r="C1485" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1485">
-        <v>193</v>
-      </c>
-      <c r="E1485" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F1485">
-        <v>42</v>
-      </c>
-      <c r="G1485">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1486">
-        <v>4</v>
-      </c>
-      <c r="B1486">
-        <v>30</v>
-      </c>
-      <c r="C1486" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1486">
-        <v>157</v>
-      </c>
-      <c r="E1486" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F1486">
-        <v>42</v>
-      </c>
-      <c r="G1486">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1487">
-        <v>4</v>
-      </c>
-      <c r="B1487">
-        <v>30</v>
-      </c>
-      <c r="C1487" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1487">
-        <v>194</v>
-      </c>
-      <c r="E1487" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F1487">
-        <v>42</v>
-      </c>
-      <c r="G1487">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1488">
-        <v>4</v>
-      </c>
-      <c r="B1488">
-        <v>31</v>
-      </c>
-      <c r="C1488" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1488">
-        <v>228</v>
-      </c>
-      <c r="E1488" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1488">
-        <v>42</v>
-      </c>
-      <c r="G1488">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1489">
-        <v>4</v>
-      </c>
-      <c r="B1489">
-        <v>31</v>
-      </c>
-      <c r="C1489" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1489">
-        <v>232</v>
-      </c>
-      <c r="E1489" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1489">
-        <v>42</v>
-      </c>
-      <c r="G1489">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1490">
-        <v>4</v>
-      </c>
-      <c r="B1490">
-        <v>31</v>
-      </c>
-      <c r="C1490" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1490">
-        <v>88</v>
-      </c>
-      <c r="E1490" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1490">
-        <v>42</v>
-      </c>
-      <c r="G1490">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85457FC9-180C-44C1-8DA3-09A73B15B3B1}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686A48D9-D8A1-4339-B37C-90FA8972A6CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="555">
   <si>
     <t>Mês</t>
   </si>
@@ -2065,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1397"/>
+  <dimension ref="A1:G1490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1398" sqref="A1398:XFD1490"/>
+      <pane ySplit="1" topLeftCell="A1470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1398" sqref="E1398:E1490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34208,6 +34208,2145 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>4</v>
+      </c>
+      <c r="B1398">
+        <v>1</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1398">
+        <v>167</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1398">
+        <v>42</v>
+      </c>
+      <c r="G1398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>4</v>
+      </c>
+      <c r="B1399">
+        <v>1</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1399">
+        <v>71</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1399">
+        <v>42</v>
+      </c>
+      <c r="G1399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>4</v>
+      </c>
+      <c r="B1400">
+        <v>1</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1400">
+        <v>219</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1400">
+        <v>42</v>
+      </c>
+      <c r="G1400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>4</v>
+      </c>
+      <c r="B1401">
+        <v>2</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1401">
+        <v>97</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1401">
+        <v>42</v>
+      </c>
+      <c r="G1401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>4</v>
+      </c>
+      <c r="B1402">
+        <v>2</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1402">
+        <v>180</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1402">
+        <v>42</v>
+      </c>
+      <c r="G1402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>4</v>
+      </c>
+      <c r="B1403">
+        <v>2</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1403">
+        <v>164</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1403">
+        <v>42</v>
+      </c>
+      <c r="G1403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>4</v>
+      </c>
+      <c r="B1404">
+        <v>3</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1404">
+        <v>215</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1404">
+        <v>42</v>
+      </c>
+      <c r="G1404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>4</v>
+      </c>
+      <c r="B1405">
+        <v>3</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1405">
+        <v>80</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1405">
+        <v>42</v>
+      </c>
+      <c r="G1405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>4</v>
+      </c>
+      <c r="B1406">
+        <v>3</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1406">
+        <v>213</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1406">
+        <v>42</v>
+      </c>
+      <c r="G1406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>4</v>
+      </c>
+      <c r="B1407">
+        <v>4</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1407">
+        <v>244</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1407">
+        <v>42</v>
+      </c>
+      <c r="G1407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>4</v>
+      </c>
+      <c r="B1408">
+        <v>4</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1408">
+        <v>104</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1408">
+        <v>42</v>
+      </c>
+      <c r="G1408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>4</v>
+      </c>
+      <c r="B1409">
+        <v>4</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1409">
+        <v>139</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1409">
+        <v>42</v>
+      </c>
+      <c r="G1409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>4</v>
+      </c>
+      <c r="B1410">
+        <v>5</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1410">
+        <v>206</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1410">
+        <v>42</v>
+      </c>
+      <c r="G1410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>4</v>
+      </c>
+      <c r="B1411">
+        <v>5</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1411">
+        <v>237</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1411">
+        <v>42</v>
+      </c>
+      <c r="G1411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>4</v>
+      </c>
+      <c r="B1412">
+        <v>5</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1412">
+        <v>172</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1412">
+        <v>42</v>
+      </c>
+      <c r="G1412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>4</v>
+      </c>
+      <c r="B1413">
+        <v>6</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1413">
+        <v>129</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1413">
+        <v>42</v>
+      </c>
+      <c r="G1413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>4</v>
+      </c>
+      <c r="B1414">
+        <v>6</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1414">
+        <v>178</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1414">
+        <v>42</v>
+      </c>
+      <c r="G1414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>4</v>
+      </c>
+      <c r="B1415">
+        <v>6</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1415">
+        <v>149</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1415">
+        <v>42</v>
+      </c>
+      <c r="G1415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>4</v>
+      </c>
+      <c r="B1416">
+        <v>7</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1416">
+        <v>104</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1416">
+        <v>42</v>
+      </c>
+      <c r="G1416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>4</v>
+      </c>
+      <c r="B1417">
+        <v>7</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1417">
+        <v>136</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1417">
+        <v>42</v>
+      </c>
+      <c r="G1417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>4</v>
+      </c>
+      <c r="B1418">
+        <v>7</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1418">
+        <v>101</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1418">
+        <v>42</v>
+      </c>
+      <c r="G1418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>4</v>
+      </c>
+      <c r="B1419">
+        <v>8</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1419">
+        <v>235</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1419">
+        <v>42</v>
+      </c>
+      <c r="G1419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>4</v>
+      </c>
+      <c r="B1420">
+        <v>8</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1420">
+        <v>171</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1420">
+        <v>42</v>
+      </c>
+      <c r="G1420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>4</v>
+      </c>
+      <c r="B1421">
+        <v>8</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1421">
+        <v>101</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1421">
+        <v>42</v>
+      </c>
+      <c r="G1421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>4</v>
+      </c>
+      <c r="B1422">
+        <v>9</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1422">
+        <v>190</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1422">
+        <v>42</v>
+      </c>
+      <c r="G1422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>4</v>
+      </c>
+      <c r="B1423">
+        <v>9</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1423">
+        <v>79</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1423">
+        <v>42</v>
+      </c>
+      <c r="G1423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>4</v>
+      </c>
+      <c r="B1424">
+        <v>9</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1424">
+        <v>106</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1424">
+        <v>42</v>
+      </c>
+      <c r="G1424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>4</v>
+      </c>
+      <c r="B1425">
+        <v>10</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1425">
+        <v>230</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1425">
+        <v>42</v>
+      </c>
+      <c r="G1425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>4</v>
+      </c>
+      <c r="B1426">
+        <v>10</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1426">
+        <v>166</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1426">
+        <v>42</v>
+      </c>
+      <c r="G1426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>4</v>
+      </c>
+      <c r="B1427">
+        <v>10</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1427">
+        <v>197</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1427">
+        <v>42</v>
+      </c>
+      <c r="G1427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>4</v>
+      </c>
+      <c r="B1428">
+        <v>11</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1428">
+        <v>158</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1428">
+        <v>42</v>
+      </c>
+      <c r="G1428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>4</v>
+      </c>
+      <c r="B1429">
+        <v>11</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1429">
+        <v>179</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1429">
+        <v>42</v>
+      </c>
+      <c r="G1429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>4</v>
+      </c>
+      <c r="B1430">
+        <v>11</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1430">
+        <v>79</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1430">
+        <v>42</v>
+      </c>
+      <c r="G1430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>4</v>
+      </c>
+      <c r="B1431">
+        <v>12</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1431">
+        <v>115</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1431">
+        <v>42</v>
+      </c>
+      <c r="G1431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>4</v>
+      </c>
+      <c r="B1432">
+        <v>12</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1432">
+        <v>194</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1432">
+        <v>42</v>
+      </c>
+      <c r="G1432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>4</v>
+      </c>
+      <c r="B1433">
+        <v>12</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1433">
+        <v>146</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1433">
+        <v>42</v>
+      </c>
+      <c r="G1433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>4</v>
+      </c>
+      <c r="B1434">
+        <v>13</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1434">
+        <v>193</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1434">
+        <v>42</v>
+      </c>
+      <c r="G1434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>4</v>
+      </c>
+      <c r="B1435">
+        <v>13</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1435">
+        <v>184</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1435">
+        <v>42</v>
+      </c>
+      <c r="G1435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>4</v>
+      </c>
+      <c r="B1436">
+        <v>13</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1436">
+        <v>203</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1436">
+        <v>42</v>
+      </c>
+      <c r="G1436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>4</v>
+      </c>
+      <c r="B1437">
+        <v>14</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1437">
+        <v>167</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1437">
+        <v>42</v>
+      </c>
+      <c r="G1437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>4</v>
+      </c>
+      <c r="B1438">
+        <v>14</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1438">
+        <v>163</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1438">
+        <v>42</v>
+      </c>
+      <c r="G1438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>4</v>
+      </c>
+      <c r="B1439">
+        <v>14</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1439">
+        <v>116</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1439">
+        <v>42</v>
+      </c>
+      <c r="G1439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>4</v>
+      </c>
+      <c r="B1440">
+        <v>15</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1440">
+        <v>173</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1440">
+        <v>42</v>
+      </c>
+      <c r="G1440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>4</v>
+      </c>
+      <c r="B1441">
+        <v>15</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1441">
+        <v>203</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1441">
+        <v>42</v>
+      </c>
+      <c r="G1441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>4</v>
+      </c>
+      <c r="B1442">
+        <v>15</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1442">
+        <v>168</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1442">
+        <v>42</v>
+      </c>
+      <c r="G1442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>4</v>
+      </c>
+      <c r="B1443">
+        <v>16</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1443">
+        <v>206</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1443">
+        <v>42</v>
+      </c>
+      <c r="G1443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>4</v>
+      </c>
+      <c r="B1444">
+        <v>16</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1444">
+        <v>124</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1444">
+        <v>42</v>
+      </c>
+      <c r="G1444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>4</v>
+      </c>
+      <c r="B1445">
+        <v>16</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1445">
+        <v>87</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1445">
+        <v>42</v>
+      </c>
+      <c r="G1445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>4</v>
+      </c>
+      <c r="B1446">
+        <v>17</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1446">
+        <v>224</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1446">
+        <v>42</v>
+      </c>
+      <c r="G1446">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>4</v>
+      </c>
+      <c r="B1447">
+        <v>17</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1447">
+        <v>144</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1447">
+        <v>42</v>
+      </c>
+      <c r="G1447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>4</v>
+      </c>
+      <c r="B1448">
+        <v>17</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1448">
+        <v>118</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1448">
+        <v>42</v>
+      </c>
+      <c r="G1448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>4</v>
+      </c>
+      <c r="B1449">
+        <v>18</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1449">
+        <v>214</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1449">
+        <v>42</v>
+      </c>
+      <c r="G1449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>4</v>
+      </c>
+      <c r="B1450">
+        <v>18</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1450">
+        <v>93</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1450">
+        <v>42</v>
+      </c>
+      <c r="G1450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>4</v>
+      </c>
+      <c r="B1451">
+        <v>18</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1451">
+        <v>136</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1451">
+        <v>42</v>
+      </c>
+      <c r="G1451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>4</v>
+      </c>
+      <c r="B1452">
+        <v>19</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1452">
+        <v>202</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1452">
+        <v>42</v>
+      </c>
+      <c r="G1452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>4</v>
+      </c>
+      <c r="B1453">
+        <v>19</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1453">
+        <v>101</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1453">
+        <v>42</v>
+      </c>
+      <c r="G1453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>4</v>
+      </c>
+      <c r="B1454">
+        <v>19</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1454">
+        <v>139</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1454">
+        <v>42</v>
+      </c>
+      <c r="G1454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>4</v>
+      </c>
+      <c r="B1455">
+        <v>20</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1455">
+        <v>102</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1455">
+        <v>42</v>
+      </c>
+      <c r="G1455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>4</v>
+      </c>
+      <c r="B1456">
+        <v>20</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1456">
+        <v>83</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1456">
+        <v>42</v>
+      </c>
+      <c r="G1456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>4</v>
+      </c>
+      <c r="B1457">
+        <v>20</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1457">
+        <v>159</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1457">
+        <v>42</v>
+      </c>
+      <c r="G1457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>4</v>
+      </c>
+      <c r="B1458">
+        <v>21</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1458">
+        <v>205</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1458">
+        <v>42</v>
+      </c>
+      <c r="G1458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>4</v>
+      </c>
+      <c r="B1459">
+        <v>21</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1459">
+        <v>108</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1459">
+        <v>42</v>
+      </c>
+      <c r="G1459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>4</v>
+      </c>
+      <c r="B1460">
+        <v>21</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1460">
+        <v>132</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1460">
+        <v>42</v>
+      </c>
+      <c r="G1460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>4</v>
+      </c>
+      <c r="B1461">
+        <v>22</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1461">
+        <v>127</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1461">
+        <v>42</v>
+      </c>
+      <c r="G1461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>4</v>
+      </c>
+      <c r="B1462">
+        <v>22</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1462">
+        <v>110</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1462">
+        <v>42</v>
+      </c>
+      <c r="G1462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>4</v>
+      </c>
+      <c r="B1463">
+        <v>22</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1463">
+        <v>238</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1463">
+        <v>42</v>
+      </c>
+      <c r="G1463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>4</v>
+      </c>
+      <c r="B1464">
+        <v>23</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1464">
+        <v>196</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1464">
+        <v>42</v>
+      </c>
+      <c r="G1464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>4</v>
+      </c>
+      <c r="B1465">
+        <v>23</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1465">
+        <v>156</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1465">
+        <v>42</v>
+      </c>
+      <c r="G1465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>4</v>
+      </c>
+      <c r="B1466">
+        <v>23</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1466">
+        <v>217</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1466">
+        <v>42</v>
+      </c>
+      <c r="G1466">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>4</v>
+      </c>
+      <c r="B1467">
+        <v>24</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1467">
+        <v>172</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1467">
+        <v>42</v>
+      </c>
+      <c r="G1467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>4</v>
+      </c>
+      <c r="B1468">
+        <v>24</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1468">
+        <v>91</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1468">
+        <v>42</v>
+      </c>
+      <c r="G1468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>4</v>
+      </c>
+      <c r="B1469">
+        <v>24</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1469">
+        <v>170</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1469">
+        <v>42</v>
+      </c>
+      <c r="G1469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>4</v>
+      </c>
+      <c r="B1470">
+        <v>25</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1470">
+        <v>175</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1470">
+        <v>42</v>
+      </c>
+      <c r="G1470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>4</v>
+      </c>
+      <c r="B1471">
+        <v>25</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1471">
+        <v>224</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1471">
+        <v>42</v>
+      </c>
+      <c r="G1471">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>4</v>
+      </c>
+      <c r="B1472">
+        <v>25</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1472">
+        <v>171</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1472">
+        <v>42</v>
+      </c>
+      <c r="G1472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>4</v>
+      </c>
+      <c r="B1473">
+        <v>26</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1473">
+        <v>85</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1473">
+        <v>42</v>
+      </c>
+      <c r="G1473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>4</v>
+      </c>
+      <c r="B1474">
+        <v>26</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1474">
+        <v>128</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1474">
+        <v>42</v>
+      </c>
+      <c r="G1474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>4</v>
+      </c>
+      <c r="B1475">
+        <v>26</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1475">
+        <v>195</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1475">
+        <v>42</v>
+      </c>
+      <c r="G1475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>4</v>
+      </c>
+      <c r="B1476">
+        <v>27</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1476">
+        <v>101</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1476">
+        <v>42</v>
+      </c>
+      <c r="G1476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>4</v>
+      </c>
+      <c r="B1477">
+        <v>27</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1477">
+        <v>130</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1477">
+        <v>42</v>
+      </c>
+      <c r="G1477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>4</v>
+      </c>
+      <c r="B1478">
+        <v>27</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1478">
+        <v>83</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1478">
+        <v>42</v>
+      </c>
+      <c r="G1478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>4</v>
+      </c>
+      <c r="B1479">
+        <v>28</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1479">
+        <v>239</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1479">
+        <v>42</v>
+      </c>
+      <c r="G1479">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>4</v>
+      </c>
+      <c r="B1480">
+        <v>28</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1480">
+        <v>243</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1480">
+        <v>42</v>
+      </c>
+      <c r="G1480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>4</v>
+      </c>
+      <c r="B1481">
+        <v>28</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1481">
+        <v>148</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1481">
+        <v>42</v>
+      </c>
+      <c r="G1481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>4</v>
+      </c>
+      <c r="B1482">
+        <v>29</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1482">
+        <v>230</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1482">
+        <v>42</v>
+      </c>
+      <c r="G1482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>4</v>
+      </c>
+      <c r="B1483">
+        <v>29</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1483">
+        <v>210</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1483">
+        <v>42</v>
+      </c>
+      <c r="G1483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>4</v>
+      </c>
+      <c r="B1484">
+        <v>29</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1484">
+        <v>138</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1484">
+        <v>42</v>
+      </c>
+      <c r="G1484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>4</v>
+      </c>
+      <c r="B1485">
+        <v>30</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1485">
+        <v>193</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1485">
+        <v>42</v>
+      </c>
+      <c r="G1485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>4</v>
+      </c>
+      <c r="B1486">
+        <v>30</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1486">
+        <v>157</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1486">
+        <v>42</v>
+      </c>
+      <c r="G1486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>4</v>
+      </c>
+      <c r="B1487">
+        <v>30</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1487">
+        <v>194</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1487">
+        <v>42</v>
+      </c>
+      <c r="G1487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>4</v>
+      </c>
+      <c r="B1488">
+        <v>31</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1488">
+        <v>228</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1488">
+        <v>42</v>
+      </c>
+      <c r="G1488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>4</v>
+      </c>
+      <c r="B1489">
+        <v>31</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1489">
+        <v>232</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1489">
+        <v>42</v>
+      </c>
+      <c r="G1489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>4</v>
+      </c>
+      <c r="B1490">
+        <v>31</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1490">
+        <v>88</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1490">
+        <v>42</v>
+      </c>
+      <c r="G1490">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686A48D9-D8A1-4339-B37C-90FA8972A6CB}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52F1E2E-999D-49B4-8DB1-980E04DC1234}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="555">
   <si>
     <t>Mês</t>
   </si>
@@ -1756,11 +1756,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2068,8 +2069,8 @@
   <dimension ref="A1:G1490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1398" sqref="E1398:E1490"/>
+      <pane ySplit="1" topLeftCell="A1389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1398" sqref="E1398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34221,8 +34222,8 @@
       <c r="D1398">
         <v>167</v>
       </c>
-      <c r="E1398" t="s">
-        <v>471</v>
+      <c r="E1398" s="2">
+        <v>45748</v>
       </c>
       <c r="F1398">
         <v>42</v>
@@ -36349,5 +36350,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52F1E2E-999D-49B4-8DB1-980E04DC1234}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0677FE-B936-4C91-A8CD-E3DBEC490EA5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="556">
   <si>
     <t>Mês</t>
   </si>
@@ -1698,6 +1698,9 @@
   </si>
   <si>
     <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>31/04/2025</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2072,8 @@
   <dimension ref="A1:G1490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1398" sqref="E1398"/>
+      <pane ySplit="1" topLeftCell="A1456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1399" sqref="E1399:E1490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34245,8 +34248,8 @@
       <c r="D1399">
         <v>71</v>
       </c>
-      <c r="E1399" t="s">
-        <v>471</v>
+      <c r="E1399" s="2">
+        <v>45748</v>
       </c>
       <c r="F1399">
         <v>42</v>
@@ -34268,8 +34271,8 @@
       <c r="D1400">
         <v>219</v>
       </c>
-      <c r="E1400" t="s">
-        <v>471</v>
+      <c r="E1400" s="2">
+        <v>45748</v>
       </c>
       <c r="F1400">
         <v>42</v>
@@ -34291,8 +34294,8 @@
       <c r="D1401">
         <v>97</v>
       </c>
-      <c r="E1401" t="s">
-        <v>472</v>
+      <c r="E1401" s="2">
+        <v>45749</v>
       </c>
       <c r="F1401">
         <v>42</v>
@@ -34314,8 +34317,8 @@
       <c r="D1402">
         <v>180</v>
       </c>
-      <c r="E1402" t="s">
-        <v>472</v>
+      <c r="E1402" s="2">
+        <v>45749</v>
       </c>
       <c r="F1402">
         <v>42</v>
@@ -34337,8 +34340,8 @@
       <c r="D1403">
         <v>164</v>
       </c>
-      <c r="E1403" t="s">
-        <v>472</v>
+      <c r="E1403" s="2">
+        <v>45749</v>
       </c>
       <c r="F1403">
         <v>42</v>
@@ -34360,8 +34363,8 @@
       <c r="D1404">
         <v>215</v>
       </c>
-      <c r="E1404" t="s">
-        <v>473</v>
+      <c r="E1404" s="2">
+        <v>45750</v>
       </c>
       <c r="F1404">
         <v>42</v>
@@ -34383,8 +34386,8 @@
       <c r="D1405">
         <v>80</v>
       </c>
-      <c r="E1405" t="s">
-        <v>473</v>
+      <c r="E1405" s="2">
+        <v>45750</v>
       </c>
       <c r="F1405">
         <v>42</v>
@@ -34406,8 +34409,8 @@
       <c r="D1406">
         <v>213</v>
       </c>
-      <c r="E1406" t="s">
-        <v>473</v>
+      <c r="E1406" s="2">
+        <v>45750</v>
       </c>
       <c r="F1406">
         <v>42</v>
@@ -34429,8 +34432,8 @@
       <c r="D1407">
         <v>244</v>
       </c>
-      <c r="E1407" t="s">
-        <v>474</v>
+      <c r="E1407" s="2">
+        <v>45751</v>
       </c>
       <c r="F1407">
         <v>42</v>
@@ -34452,8 +34455,8 @@
       <c r="D1408">
         <v>104</v>
       </c>
-      <c r="E1408" t="s">
-        <v>474</v>
+      <c r="E1408" s="2">
+        <v>45751</v>
       </c>
       <c r="F1408">
         <v>42</v>
@@ -34475,8 +34478,8 @@
       <c r="D1409">
         <v>139</v>
       </c>
-      <c r="E1409" t="s">
-        <v>474</v>
+      <c r="E1409" s="2">
+        <v>45751</v>
       </c>
       <c r="F1409">
         <v>42</v>
@@ -34498,8 +34501,8 @@
       <c r="D1410">
         <v>206</v>
       </c>
-      <c r="E1410" t="s">
-        <v>475</v>
+      <c r="E1410" s="2">
+        <v>45752</v>
       </c>
       <c r="F1410">
         <v>42</v>
@@ -34521,8 +34524,8 @@
       <c r="D1411">
         <v>237</v>
       </c>
-      <c r="E1411" t="s">
-        <v>475</v>
+      <c r="E1411" s="2">
+        <v>45752</v>
       </c>
       <c r="F1411">
         <v>42</v>
@@ -34544,8 +34547,8 @@
       <c r="D1412">
         <v>172</v>
       </c>
-      <c r="E1412" t="s">
-        <v>475</v>
+      <c r="E1412" s="2">
+        <v>45752</v>
       </c>
       <c r="F1412">
         <v>42</v>
@@ -34567,8 +34570,8 @@
       <c r="D1413">
         <v>129</v>
       </c>
-      <c r="E1413" t="s">
-        <v>476</v>
+      <c r="E1413" s="2">
+        <v>45753</v>
       </c>
       <c r="F1413">
         <v>42</v>
@@ -34590,8 +34593,8 @@
       <c r="D1414">
         <v>178</v>
       </c>
-      <c r="E1414" t="s">
-        <v>476</v>
+      <c r="E1414" s="2">
+        <v>45753</v>
       </c>
       <c r="F1414">
         <v>42</v>
@@ -34613,8 +34616,8 @@
       <c r="D1415">
         <v>149</v>
       </c>
-      <c r="E1415" t="s">
-        <v>476</v>
+      <c r="E1415" s="2">
+        <v>45753</v>
       </c>
       <c r="F1415">
         <v>42</v>
@@ -34636,8 +34639,8 @@
       <c r="D1416">
         <v>104</v>
       </c>
-      <c r="E1416" t="s">
-        <v>477</v>
+      <c r="E1416" s="2">
+        <v>45754</v>
       </c>
       <c r="F1416">
         <v>42</v>
@@ -34659,8 +34662,8 @@
       <c r="D1417">
         <v>136</v>
       </c>
-      <c r="E1417" t="s">
-        <v>477</v>
+      <c r="E1417" s="2">
+        <v>45754</v>
       </c>
       <c r="F1417">
         <v>42</v>
@@ -34682,8 +34685,8 @@
       <c r="D1418">
         <v>101</v>
       </c>
-      <c r="E1418" t="s">
-        <v>477</v>
+      <c r="E1418" s="2">
+        <v>45754</v>
       </c>
       <c r="F1418">
         <v>42</v>
@@ -34705,8 +34708,8 @@
       <c r="D1419">
         <v>235</v>
       </c>
-      <c r="E1419" t="s">
-        <v>478</v>
+      <c r="E1419" s="2">
+        <v>45755</v>
       </c>
       <c r="F1419">
         <v>42</v>
@@ -34728,8 +34731,8 @@
       <c r="D1420">
         <v>171</v>
       </c>
-      <c r="E1420" t="s">
-        <v>478</v>
+      <c r="E1420" s="2">
+        <v>45755</v>
       </c>
       <c r="F1420">
         <v>42</v>
@@ -34751,8 +34754,8 @@
       <c r="D1421">
         <v>101</v>
       </c>
-      <c r="E1421" t="s">
-        <v>478</v>
+      <c r="E1421" s="2">
+        <v>45755</v>
       </c>
       <c r="F1421">
         <v>42</v>
@@ -34774,8 +34777,8 @@
       <c r="D1422">
         <v>190</v>
       </c>
-      <c r="E1422" t="s">
-        <v>479</v>
+      <c r="E1422" s="2">
+        <v>45756</v>
       </c>
       <c r="F1422">
         <v>42</v>
@@ -34797,8 +34800,8 @@
       <c r="D1423">
         <v>79</v>
       </c>
-      <c r="E1423" t="s">
-        <v>479</v>
+      <c r="E1423" s="2">
+        <v>45756</v>
       </c>
       <c r="F1423">
         <v>42</v>
@@ -34820,8 +34823,8 @@
       <c r="D1424">
         <v>106</v>
       </c>
-      <c r="E1424" t="s">
-        <v>479</v>
+      <c r="E1424" s="2">
+        <v>45756</v>
       </c>
       <c r="F1424">
         <v>42</v>
@@ -34843,8 +34846,8 @@
       <c r="D1425">
         <v>230</v>
       </c>
-      <c r="E1425" t="s">
-        <v>480</v>
+      <c r="E1425" s="2">
+        <v>45757</v>
       </c>
       <c r="F1425">
         <v>42</v>
@@ -34866,8 +34869,8 @@
       <c r="D1426">
         <v>166</v>
       </c>
-      <c r="E1426" t="s">
-        <v>480</v>
+      <c r="E1426" s="2">
+        <v>45757</v>
       </c>
       <c r="F1426">
         <v>42</v>
@@ -34889,8 +34892,8 @@
       <c r="D1427">
         <v>197</v>
       </c>
-      <c r="E1427" t="s">
-        <v>480</v>
+      <c r="E1427" s="2">
+        <v>45757</v>
       </c>
       <c r="F1427">
         <v>42</v>
@@ -34912,8 +34915,8 @@
       <c r="D1428">
         <v>158</v>
       </c>
-      <c r="E1428" t="s">
-        <v>481</v>
+      <c r="E1428" s="2">
+        <v>45758</v>
       </c>
       <c r="F1428">
         <v>42</v>
@@ -34935,8 +34938,8 @@
       <c r="D1429">
         <v>179</v>
       </c>
-      <c r="E1429" t="s">
-        <v>481</v>
+      <c r="E1429" s="2">
+        <v>45758</v>
       </c>
       <c r="F1429">
         <v>42</v>
@@ -34958,8 +34961,8 @@
       <c r="D1430">
         <v>79</v>
       </c>
-      <c r="E1430" t="s">
-        <v>481</v>
+      <c r="E1430" s="2">
+        <v>45758</v>
       </c>
       <c r="F1430">
         <v>42</v>
@@ -34981,8 +34984,8 @@
       <c r="D1431">
         <v>115</v>
       </c>
-      <c r="E1431" t="s">
-        <v>482</v>
+      <c r="E1431" s="2">
+        <v>45759</v>
       </c>
       <c r="F1431">
         <v>42</v>
@@ -35004,8 +35007,8 @@
       <c r="D1432">
         <v>194</v>
       </c>
-      <c r="E1432" t="s">
-        <v>482</v>
+      <c r="E1432" s="2">
+        <v>45759</v>
       </c>
       <c r="F1432">
         <v>42</v>
@@ -35027,8 +35030,8 @@
       <c r="D1433">
         <v>146</v>
       </c>
-      <c r="E1433" t="s">
-        <v>482</v>
+      <c r="E1433" s="2">
+        <v>45759</v>
       </c>
       <c r="F1433">
         <v>42</v>
@@ -35050,8 +35053,8 @@
       <c r="D1434">
         <v>193</v>
       </c>
-      <c r="E1434" t="s">
-        <v>483</v>
+      <c r="E1434" s="2">
+        <v>45760</v>
       </c>
       <c r="F1434">
         <v>42</v>
@@ -35073,8 +35076,8 @@
       <c r="D1435">
         <v>184</v>
       </c>
-      <c r="E1435" t="s">
-        <v>483</v>
+      <c r="E1435" s="2">
+        <v>45760</v>
       </c>
       <c r="F1435">
         <v>42</v>
@@ -35096,8 +35099,8 @@
       <c r="D1436">
         <v>203</v>
       </c>
-      <c r="E1436" t="s">
-        <v>483</v>
+      <c r="E1436" s="2">
+        <v>45760</v>
       </c>
       <c r="F1436">
         <v>42</v>
@@ -35119,8 +35122,8 @@
       <c r="D1437">
         <v>167</v>
       </c>
-      <c r="E1437" t="s">
-        <v>484</v>
+      <c r="E1437" s="2">
+        <v>45761</v>
       </c>
       <c r="F1437">
         <v>42</v>
@@ -35142,8 +35145,8 @@
       <c r="D1438">
         <v>163</v>
       </c>
-      <c r="E1438" t="s">
-        <v>484</v>
+      <c r="E1438" s="2">
+        <v>45761</v>
       </c>
       <c r="F1438">
         <v>42</v>
@@ -35165,8 +35168,8 @@
       <c r="D1439">
         <v>116</v>
       </c>
-      <c r="E1439" t="s">
-        <v>484</v>
+      <c r="E1439" s="2">
+        <v>45761</v>
       </c>
       <c r="F1439">
         <v>42</v>
@@ -35188,8 +35191,8 @@
       <c r="D1440">
         <v>173</v>
       </c>
-      <c r="E1440" t="s">
-        <v>485</v>
+      <c r="E1440" s="2">
+        <v>45762</v>
       </c>
       <c r="F1440">
         <v>42</v>
@@ -35211,8 +35214,8 @@
       <c r="D1441">
         <v>203</v>
       </c>
-      <c r="E1441" t="s">
-        <v>485</v>
+      <c r="E1441" s="2">
+        <v>45762</v>
       </c>
       <c r="F1441">
         <v>42</v>
@@ -35234,8 +35237,8 @@
       <c r="D1442">
         <v>168</v>
       </c>
-      <c r="E1442" t="s">
-        <v>485</v>
+      <c r="E1442" s="2">
+        <v>45762</v>
       </c>
       <c r="F1442">
         <v>42</v>
@@ -35257,8 +35260,8 @@
       <c r="D1443">
         <v>206</v>
       </c>
-      <c r="E1443" t="s">
-        <v>486</v>
+      <c r="E1443" s="2">
+        <v>45763</v>
       </c>
       <c r="F1443">
         <v>42</v>
@@ -35280,8 +35283,8 @@
       <c r="D1444">
         <v>124</v>
       </c>
-      <c r="E1444" t="s">
-        <v>486</v>
+      <c r="E1444" s="2">
+        <v>45763</v>
       </c>
       <c r="F1444">
         <v>42</v>
@@ -35303,8 +35306,8 @@
       <c r="D1445">
         <v>87</v>
       </c>
-      <c r="E1445" t="s">
-        <v>486</v>
+      <c r="E1445" s="2">
+        <v>45763</v>
       </c>
       <c r="F1445">
         <v>42</v>
@@ -35326,8 +35329,8 @@
       <c r="D1446">
         <v>224</v>
       </c>
-      <c r="E1446" t="s">
-        <v>487</v>
+      <c r="E1446" s="2">
+        <v>45764</v>
       </c>
       <c r="F1446">
         <v>42</v>
@@ -35349,8 +35352,8 @@
       <c r="D1447">
         <v>144</v>
       </c>
-      <c r="E1447" t="s">
-        <v>487</v>
+      <c r="E1447" s="2">
+        <v>45764</v>
       </c>
       <c r="F1447">
         <v>42</v>
@@ -35372,8 +35375,8 @@
       <c r="D1448">
         <v>118</v>
       </c>
-      <c r="E1448" t="s">
-        <v>487</v>
+      <c r="E1448" s="2">
+        <v>45764</v>
       </c>
       <c r="F1448">
         <v>42</v>
@@ -35395,8 +35398,8 @@
       <c r="D1449">
         <v>214</v>
       </c>
-      <c r="E1449" t="s">
-        <v>488</v>
+      <c r="E1449" s="2">
+        <v>45765</v>
       </c>
       <c r="F1449">
         <v>42</v>
@@ -35418,8 +35421,8 @@
       <c r="D1450">
         <v>93</v>
       </c>
-      <c r="E1450" t="s">
-        <v>488</v>
+      <c r="E1450" s="2">
+        <v>45765</v>
       </c>
       <c r="F1450">
         <v>42</v>
@@ -35441,8 +35444,8 @@
       <c r="D1451">
         <v>136</v>
       </c>
-      <c r="E1451" t="s">
-        <v>488</v>
+      <c r="E1451" s="2">
+        <v>45765</v>
       </c>
       <c r="F1451">
         <v>42</v>
@@ -35464,8 +35467,8 @@
       <c r="D1452">
         <v>202</v>
       </c>
-      <c r="E1452" t="s">
-        <v>489</v>
+      <c r="E1452" s="2">
+        <v>45766</v>
       </c>
       <c r="F1452">
         <v>42</v>
@@ -35487,8 +35490,8 @@
       <c r="D1453">
         <v>101</v>
       </c>
-      <c r="E1453" t="s">
-        <v>489</v>
+      <c r="E1453" s="2">
+        <v>45766</v>
       </c>
       <c r="F1453">
         <v>42</v>
@@ -35510,8 +35513,8 @@
       <c r="D1454">
         <v>139</v>
       </c>
-      <c r="E1454" t="s">
-        <v>489</v>
+      <c r="E1454" s="2">
+        <v>45766</v>
       </c>
       <c r="F1454">
         <v>42</v>
@@ -35533,8 +35536,8 @@
       <c r="D1455">
         <v>102</v>
       </c>
-      <c r="E1455" t="s">
-        <v>490</v>
+      <c r="E1455" s="2">
+        <v>45767</v>
       </c>
       <c r="F1455">
         <v>42</v>
@@ -35556,8 +35559,8 @@
       <c r="D1456">
         <v>83</v>
       </c>
-      <c r="E1456" t="s">
-        <v>490</v>
+      <c r="E1456" s="2">
+        <v>45767</v>
       </c>
       <c r="F1456">
         <v>42</v>
@@ -35579,8 +35582,8 @@
       <c r="D1457">
         <v>159</v>
       </c>
-      <c r="E1457" t="s">
-        <v>490</v>
+      <c r="E1457" s="2">
+        <v>45767</v>
       </c>
       <c r="F1457">
         <v>42</v>
@@ -35602,8 +35605,8 @@
       <c r="D1458">
         <v>205</v>
       </c>
-      <c r="E1458" t="s">
-        <v>491</v>
+      <c r="E1458" s="2">
+        <v>45768</v>
       </c>
       <c r="F1458">
         <v>42</v>
@@ -35625,8 +35628,8 @@
       <c r="D1459">
         <v>108</v>
       </c>
-      <c r="E1459" t="s">
-        <v>491</v>
+      <c r="E1459" s="2">
+        <v>45768</v>
       </c>
       <c r="F1459">
         <v>42</v>
@@ -35648,8 +35651,8 @@
       <c r="D1460">
         <v>132</v>
       </c>
-      <c r="E1460" t="s">
-        <v>491</v>
+      <c r="E1460" s="2">
+        <v>45768</v>
       </c>
       <c r="F1460">
         <v>42</v>
@@ -35671,8 +35674,8 @@
       <c r="D1461">
         <v>127</v>
       </c>
-      <c r="E1461" t="s">
-        <v>492</v>
+      <c r="E1461" s="2">
+        <v>45769</v>
       </c>
       <c r="F1461">
         <v>42</v>
@@ -35694,8 +35697,8 @@
       <c r="D1462">
         <v>110</v>
       </c>
-      <c r="E1462" t="s">
-        <v>492</v>
+      <c r="E1462" s="2">
+        <v>45769</v>
       </c>
       <c r="F1462">
         <v>42</v>
@@ -35717,8 +35720,8 @@
       <c r="D1463">
         <v>238</v>
       </c>
-      <c r="E1463" t="s">
-        <v>492</v>
+      <c r="E1463" s="2">
+        <v>45769</v>
       </c>
       <c r="F1463">
         <v>42</v>
@@ -35740,8 +35743,8 @@
       <c r="D1464">
         <v>196</v>
       </c>
-      <c r="E1464" t="s">
-        <v>493</v>
+      <c r="E1464" s="2">
+        <v>45770</v>
       </c>
       <c r="F1464">
         <v>42</v>
@@ -35763,8 +35766,8 @@
       <c r="D1465">
         <v>156</v>
       </c>
-      <c r="E1465" t="s">
-        <v>493</v>
+      <c r="E1465" s="2">
+        <v>45770</v>
       </c>
       <c r="F1465">
         <v>42</v>
@@ -35786,8 +35789,8 @@
       <c r="D1466">
         <v>217</v>
       </c>
-      <c r="E1466" t="s">
-        <v>493</v>
+      <c r="E1466" s="2">
+        <v>45770</v>
       </c>
       <c r="F1466">
         <v>42</v>
@@ -35809,8 +35812,8 @@
       <c r="D1467">
         <v>172</v>
       </c>
-      <c r="E1467" t="s">
-        <v>494</v>
+      <c r="E1467" s="2">
+        <v>45771</v>
       </c>
       <c r="F1467">
         <v>42</v>
@@ -35832,8 +35835,8 @@
       <c r="D1468">
         <v>91</v>
       </c>
-      <c r="E1468" t="s">
-        <v>494</v>
+      <c r="E1468" s="2">
+        <v>45771</v>
       </c>
       <c r="F1468">
         <v>42</v>
@@ -35855,8 +35858,8 @@
       <c r="D1469">
         <v>170</v>
       </c>
-      <c r="E1469" t="s">
-        <v>494</v>
+      <c r="E1469" s="2">
+        <v>45771</v>
       </c>
       <c r="F1469">
         <v>42</v>
@@ -35878,8 +35881,8 @@
       <c r="D1470">
         <v>175</v>
       </c>
-      <c r="E1470" t="s">
-        <v>495</v>
+      <c r="E1470" s="2">
+        <v>45772</v>
       </c>
       <c r="F1470">
         <v>42</v>
@@ -35901,8 +35904,8 @@
       <c r="D1471">
         <v>224</v>
       </c>
-      <c r="E1471" t="s">
-        <v>495</v>
+      <c r="E1471" s="2">
+        <v>45772</v>
       </c>
       <c r="F1471">
         <v>42</v>
@@ -35924,8 +35927,8 @@
       <c r="D1472">
         <v>171</v>
       </c>
-      <c r="E1472" t="s">
-        <v>495</v>
+      <c r="E1472" s="2">
+        <v>45772</v>
       </c>
       <c r="F1472">
         <v>42</v>
@@ -35947,8 +35950,8 @@
       <c r="D1473">
         <v>85</v>
       </c>
-      <c r="E1473" t="s">
-        <v>496</v>
+      <c r="E1473" s="2">
+        <v>45773</v>
       </c>
       <c r="F1473">
         <v>42</v>
@@ -35970,8 +35973,8 @@
       <c r="D1474">
         <v>128</v>
       </c>
-      <c r="E1474" t="s">
-        <v>496</v>
+      <c r="E1474" s="2">
+        <v>45773</v>
       </c>
       <c r="F1474">
         <v>42</v>
@@ -35993,8 +35996,8 @@
       <c r="D1475">
         <v>195</v>
       </c>
-      <c r="E1475" t="s">
-        <v>496</v>
+      <c r="E1475" s="2">
+        <v>45773</v>
       </c>
       <c r="F1475">
         <v>42</v>
@@ -36016,8 +36019,8 @@
       <c r="D1476">
         <v>101</v>
       </c>
-      <c r="E1476" t="s">
-        <v>497</v>
+      <c r="E1476" s="2">
+        <v>45774</v>
       </c>
       <c r="F1476">
         <v>42</v>
@@ -36039,8 +36042,8 @@
       <c r="D1477">
         <v>130</v>
       </c>
-      <c r="E1477" t="s">
-        <v>497</v>
+      <c r="E1477" s="2">
+        <v>45774</v>
       </c>
       <c r="F1477">
         <v>42</v>
@@ -36062,8 +36065,8 @@
       <c r="D1478">
         <v>83</v>
       </c>
-      <c r="E1478" t="s">
-        <v>497</v>
+      <c r="E1478" s="2">
+        <v>45774</v>
       </c>
       <c r="F1478">
         <v>42</v>
@@ -36085,8 +36088,8 @@
       <c r="D1479">
         <v>239</v>
       </c>
-      <c r="E1479" t="s">
-        <v>498</v>
+      <c r="E1479" s="2">
+        <v>45775</v>
       </c>
       <c r="F1479">
         <v>42</v>
@@ -36108,8 +36111,8 @@
       <c r="D1480">
         <v>243</v>
       </c>
-      <c r="E1480" t="s">
-        <v>498</v>
+      <c r="E1480" s="2">
+        <v>45775</v>
       </c>
       <c r="F1480">
         <v>42</v>
@@ -36131,8 +36134,8 @@
       <c r="D1481">
         <v>148</v>
       </c>
-      <c r="E1481" t="s">
-        <v>498</v>
+      <c r="E1481" s="2">
+        <v>45775</v>
       </c>
       <c r="F1481">
         <v>42</v>
@@ -36154,8 +36157,8 @@
       <c r="D1482">
         <v>230</v>
       </c>
-      <c r="E1482" t="s">
-        <v>499</v>
+      <c r="E1482" s="2">
+        <v>45776</v>
       </c>
       <c r="F1482">
         <v>42</v>
@@ -36177,8 +36180,8 @@
       <c r="D1483">
         <v>210</v>
       </c>
-      <c r="E1483" t="s">
-        <v>499</v>
+      <c r="E1483" s="2">
+        <v>45776</v>
       </c>
       <c r="F1483">
         <v>42</v>
@@ -36200,8 +36203,8 @@
       <c r="D1484">
         <v>138</v>
       </c>
-      <c r="E1484" t="s">
-        <v>499</v>
+      <c r="E1484" s="2">
+        <v>45776</v>
       </c>
       <c r="F1484">
         <v>42</v>
@@ -36223,8 +36226,8 @@
       <c r="D1485">
         <v>193</v>
       </c>
-      <c r="E1485" t="s">
-        <v>500</v>
+      <c r="E1485" s="2">
+        <v>45777</v>
       </c>
       <c r="F1485">
         <v>42</v>
@@ -36246,8 +36249,8 @@
       <c r="D1486">
         <v>157</v>
       </c>
-      <c r="E1486" t="s">
-        <v>500</v>
+      <c r="E1486" s="2">
+        <v>45777</v>
       </c>
       <c r="F1486">
         <v>42</v>
@@ -36269,8 +36272,8 @@
       <c r="D1487">
         <v>194</v>
       </c>
-      <c r="E1487" t="s">
-        <v>500</v>
+      <c r="E1487" s="2">
+        <v>45777</v>
       </c>
       <c r="F1487">
         <v>42</v>
@@ -36292,8 +36295,8 @@
       <c r="D1488">
         <v>228</v>
       </c>
-      <c r="E1488" t="s">
-        <v>501</v>
+      <c r="E1488" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="F1488">
         <v>42</v>
@@ -36315,8 +36318,8 @@
       <c r="D1489">
         <v>232</v>
       </c>
-      <c r="E1489" t="s">
-        <v>501</v>
+      <c r="E1489" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="F1489">
         <v>42</v>
@@ -36338,8 +36341,8 @@
       <c r="D1490">
         <v>88</v>
       </c>
-      <c r="E1490" t="s">
-        <v>501</v>
+      <c r="E1490" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="F1490">
         <v>42</v>

--- a/REGISTRO-GLICOSES.xlsx
+++ b/REGISTRO-GLICOSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecprinters-my.sharepoint.com/personal/maik_tecprinters_com_br/Documents/GitHub/Empresa/Medglic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0677FE-B936-4C91-A8CD-E3DBEC490EA5}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_91EADECEDCF92FD67C160B84C35BD2FB5129DCC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B8A134-FEDA-40CB-93E9-D3ED76F7CAB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="555">
   <si>
     <t>Mês</t>
   </si>
@@ -1698,9 +1698,6 @@
   </si>
   <si>
     <t>25/03/2025</t>
-  </si>
-  <si>
-    <t>31/04/2025</t>
   </si>
 </sst>
 </file>
@@ -2069,11 +2066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1490"/>
+  <dimension ref="A1:G1487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1399" sqref="E1399:E1490"/>
+      <pane ySplit="1" topLeftCell="A1386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1398" sqref="E1398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36282,77 +36279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1488">
-        <v>4</v>
-      </c>
-      <c r="B1488">
-        <v>31</v>
-      </c>
-      <c r="C1488" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1488">
-        <v>228</v>
-      </c>
-      <c r="E1488" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1488">
-        <v>42</v>
-      </c>
-      <c r="G1488">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1489">
-        <v>4</v>
-      </c>
-      <c r="B1489">
-        <v>31</v>
-      </c>
-      <c r="C1489" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1489">
-        <v>232</v>
-      </c>
-      <c r="E1489" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1489">
-        <v>42</v>
-      </c>
-      <c r="G1489">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1490">
-        <v>4</v>
-      </c>
-      <c r="B1490">
-        <v>31</v>
-      </c>
-      <c r="C1490" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1490">
-        <v>88</v>
-      </c>
-      <c r="E1490" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1490">
-        <v>42</v>
-      </c>
-      <c r="G1490">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>